--- a/data/Navigation_Responses.xlsx
+++ b/data/Navigation_Responses.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4157" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4315" uniqueCount="1119">
   <si>
     <t>Timestamp</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Person filling out this form:</t>
   </si>
   <si>
-    <t>Activity duration (minutes):</t>
+    <t>Activity Duration (minutes):</t>
   </si>
   <si>
     <t>Location Encountered:</t>
@@ -3258,6 +3258,117 @@
   </si>
   <si>
     <t>Williams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melvin Josue </t>
+  </si>
+  <si>
+    <t>12101 Dessau Rd</t>
+  </si>
+  <si>
+    <t>Client came to PCP appointment to establish care 2/18/2025</t>
+  </si>
+  <si>
+    <t>Paz Rugama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James </t>
+  </si>
+  <si>
+    <t xml:space="preserve">901 Valdez St. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client came to PCP appointment to establish care on 2/18 </t>
+  </si>
+  <si>
+    <t>Vernon</t>
+  </si>
+  <si>
+    <t>3154 E Highway Tl</t>
+  </si>
+  <si>
+    <t>Venom</t>
+  </si>
+  <si>
+    <t>Megan</t>
+  </si>
+  <si>
+    <t>2009 Sandberg Dr</t>
+  </si>
+  <si>
+    <t>Client came in for MAP Assistance &amp; Gave her SNAP application, Food pantry</t>
+  </si>
+  <si>
+    <t>Escamilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andres </t>
+  </si>
+  <si>
+    <t>512 E 2nd St</t>
+  </si>
+  <si>
+    <t>Carbajal Estrada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9216 S Congress Ave </t>
+  </si>
+  <si>
+    <t>Franco</t>
+  </si>
+  <si>
+    <t>Enrique</t>
+  </si>
+  <si>
+    <t>9508 Teasdale Terace</t>
+  </si>
+  <si>
+    <t>Gonzalez Gasca</t>
+  </si>
+  <si>
+    <t>Vicente</t>
+  </si>
+  <si>
+    <t>1125 Ruthland Dr</t>
+  </si>
+  <si>
+    <t>Yesser</t>
+  </si>
+  <si>
+    <t>Alexis</t>
+  </si>
+  <si>
+    <t>1003 W MLK Jr Ave Apt 1401</t>
+  </si>
+  <si>
+    <t>Belton</t>
+  </si>
+  <si>
+    <t>Client came in &amp; received MAP assistance, Also scheduled pcp appt 2/20 8:45am @ Sandra Joy location</t>
+  </si>
+  <si>
+    <t>Garcia Luciano</t>
+  </si>
+  <si>
+    <t>Humberto</t>
+  </si>
+  <si>
+    <t>1003 W MLK Jr Ave</t>
+  </si>
+  <si>
+    <t>Mendoza Alvarez</t>
+  </si>
+  <si>
+    <t>HMIS Protected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel Expenses and Food </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMIS protected </t>
   </si>
 </sst>
 </file>
@@ -3632,12 +3743,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:W340" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:W352" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="23">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="Date of Activity" id="2"/>
     <tableColumn name="Person filling out this form:" id="3"/>
-    <tableColumn name="Activity duration (minutes):" id="4"/>
+    <tableColumn name="Activity Duration (minutes):" id="4"/>
     <tableColumn name="Location Encountered:" id="5"/>
     <tableColumn name="Individual's First Name:" id="6"/>
     <tableColumn name="Individual's Date of Birth:" id="7"/>
@@ -3902,7 +4013,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -23223,267 +23334,777 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="32">
+      <c r="A340" s="28">
         <v>45705.671715625</v>
       </c>
-      <c r="B340" s="33">
+      <c r="B340" s="29">
         <v>45339.0</v>
       </c>
-      <c r="C340" s="34" t="s">
+      <c r="C340" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D340" s="34">
+      <c r="D340" s="23">
         <v>60.0</v>
       </c>
-      <c r="E340" s="34" t="s">
+      <c r="E340" s="23" t="s">
         <v>576</v>
       </c>
-      <c r="F340" s="34" t="s">
+      <c r="F340" s="23" t="s">
         <v>1078</v>
       </c>
-      <c r="G340" s="33">
+      <c r="G340" s="29">
         <v>32176.0</v>
       </c>
-      <c r="H340" s="34" t="s">
+      <c r="H340" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I340" s="34" t="s">
+      <c r="I340" s="23" t="s">
         <v>1079</v>
       </c>
-      <c r="J340" s="34" t="s">
+      <c r="J340" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="K340" s="34">
+      <c r="K340" s="23">
         <v>78724.0</v>
       </c>
-      <c r="L340" s="34" t="s">
+      <c r="L340" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="M340" s="34" t="s">
+      <c r="M340" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="N340" s="34" t="s">
+      <c r="N340" s="23" t="s">
         <v>1080</v>
       </c>
-      <c r="O340" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="R340" s="34" t="s">
+      <c r="O340" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R340" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="S340" s="34" t="s">
+      <c r="S340" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="T340" s="34">
+      <c r="T340" s="23">
         <v>0.0</v>
       </c>
-      <c r="W340" s="35" t="s">
+      <c r="W340" s="30" t="s">
         <v>1081</v>
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="36"/>
-      <c r="B341" s="36"/>
-      <c r="C341" s="36"/>
-      <c r="D341" s="36"/>
-      <c r="E341" s="36"/>
-      <c r="F341" s="36"/>
-      <c r="G341" s="36"/>
-      <c r="H341" s="36"/>
-      <c r="I341" s="36"/>
-      <c r="J341" s="36"/>
-      <c r="K341" s="36"/>
-      <c r="L341" s="36"/>
-      <c r="M341" s="36"/>
-      <c r="N341" s="36"/>
-      <c r="O341" s="36"/>
+      <c r="A341" s="26">
+        <v>45706.36212563657</v>
+      </c>
+      <c r="B341" s="27">
+        <v>45706.0</v>
+      </c>
+      <c r="C341" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D341" s="17">
+        <v>60.0</v>
+      </c>
+      <c r="E341" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="F341" s="17" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G341" s="27">
+        <v>32474.0</v>
+      </c>
+      <c r="H341" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I341" s="17" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J341" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="K341" s="17">
+        <v>78754.0</v>
+      </c>
+      <c r="L341" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M341" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N341" s="17" t="s">
+        <v>1084</v>
+      </c>
+      <c r="O341" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R341" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S341" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="T341" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="W341" s="31" t="s">
+        <v>1085</v>
+      </c>
     </row>
     <row r="342">
-      <c r="A342" s="36"/>
-      <c r="B342" s="36"/>
-      <c r="C342" s="36"/>
-      <c r="D342" s="36"/>
-      <c r="E342" s="36"/>
-      <c r="F342" s="36"/>
-      <c r="G342" s="36"/>
-      <c r="H342" s="36"/>
-      <c r="I342" s="36"/>
-      <c r="J342" s="36"/>
-      <c r="K342" s="36"/>
-      <c r="L342" s="36"/>
-      <c r="M342" s="36"/>
-      <c r="N342" s="36"/>
-      <c r="O342" s="36"/>
+      <c r="A342" s="28">
+        <v>45706.54920136574</v>
+      </c>
+      <c r="B342" s="29">
+        <v>45706.0</v>
+      </c>
+      <c r="C342" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D342" s="23">
+        <v>90.0</v>
+      </c>
+      <c r="E342" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="F342" s="23" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G342" s="29">
+        <v>24310.0</v>
+      </c>
+      <c r="H342" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I342" s="23" t="s">
+        <v>1087</v>
+      </c>
+      <c r="J342" s="23" t="s">
+        <v>953</v>
+      </c>
+      <c r="K342" s="23">
+        <v>78741.0</v>
+      </c>
+      <c r="L342" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="M342" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N342" s="23" t="s">
+        <v>1088</v>
+      </c>
+      <c r="O342" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R342" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S342" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="T342" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="W342" s="30" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="343">
-      <c r="A343" s="36"/>
-      <c r="B343" s="36"/>
-      <c r="C343" s="36"/>
-      <c r="D343" s="36"/>
-      <c r="E343" s="36"/>
-      <c r="F343" s="36"/>
-      <c r="G343" s="36"/>
-      <c r="H343" s="36"/>
-      <c r="I343" s="36"/>
-      <c r="J343" s="36"/>
-      <c r="K343" s="36"/>
-      <c r="L343" s="36"/>
-      <c r="M343" s="36"/>
-      <c r="N343" s="36"/>
-      <c r="O343" s="36"/>
+      <c r="A343" s="26">
+        <v>45706.562054571754</v>
+      </c>
+      <c r="B343" s="27">
+        <v>45706.0</v>
+      </c>
+      <c r="C343" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D343" s="17">
+        <v>90.0</v>
+      </c>
+      <c r="E343" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="F343" s="17" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G343" s="27">
+        <v>33510.0</v>
+      </c>
+      <c r="H343" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="I343" s="17" t="s">
+        <v>1090</v>
+      </c>
+      <c r="J343" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="K343" s="17">
+        <v>78617.0</v>
+      </c>
+      <c r="L343" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M343" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N343" s="17" t="s">
+        <v>784</v>
+      </c>
+      <c r="O343" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R343" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S343" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="T343" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="W343" s="31" t="s">
+        <v>1091</v>
+      </c>
     </row>
     <row r="344">
-      <c r="A344" s="36"/>
-      <c r="B344" s="36"/>
-      <c r="C344" s="36"/>
-      <c r="D344" s="36"/>
-      <c r="E344" s="36"/>
-      <c r="F344" s="36"/>
-      <c r="G344" s="36"/>
-      <c r="H344" s="36"/>
-      <c r="I344" s="36"/>
-      <c r="J344" s="36"/>
-      <c r="K344" s="36"/>
-      <c r="L344" s="36"/>
-      <c r="M344" s="36"/>
-      <c r="N344" s="36"/>
-      <c r="O344" s="36"/>
+      <c r="A344" s="28">
+        <v>45706.59817548611</v>
+      </c>
+      <c r="B344" s="29">
+        <v>45706.0</v>
+      </c>
+      <c r="C344" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D344" s="23">
+        <v>30.0</v>
+      </c>
+      <c r="E344" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="F344" s="23" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G344" s="29">
+        <v>35430.0</v>
+      </c>
+      <c r="H344" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I344" s="23" t="s">
+        <v>1093</v>
+      </c>
+      <c r="J344" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K344" s="23">
+        <v>78752.0</v>
+      </c>
+      <c r="L344" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M344" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="N344" s="23" t="s">
+        <v>1094</v>
+      </c>
+      <c r="O344" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R344" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="S344" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="T344" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="W344" s="30" t="s">
+        <v>1095</v>
+      </c>
     </row>
     <row r="345">
-      <c r="A345" s="36"/>
-      <c r="B345" s="36"/>
-      <c r="C345" s="36"/>
-      <c r="D345" s="36"/>
-      <c r="E345" s="36"/>
-      <c r="F345" s="36"/>
-      <c r="G345" s="36"/>
-      <c r="H345" s="36"/>
-      <c r="I345" s="36"/>
-      <c r="J345" s="36"/>
-      <c r="K345" s="36"/>
-      <c r="L345" s="36"/>
-      <c r="M345" s="36"/>
-      <c r="N345" s="36"/>
-      <c r="O345" s="36"/>
+      <c r="A345" s="26">
+        <v>45707.37544949074</v>
+      </c>
+      <c r="B345" s="27">
+        <v>45707.0</v>
+      </c>
+      <c r="C345" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D345" s="17">
+        <v>90.0</v>
+      </c>
+      <c r="E345" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="F345" s="17" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G345" s="27">
+        <v>23787.0</v>
+      </c>
+      <c r="H345" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="I345" s="17" t="s">
+        <v>1097</v>
+      </c>
+      <c r="J345" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="K345" s="17">
+        <v>78621.0</v>
+      </c>
+      <c r="L345" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="M345" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N345" s="17" t="s">
+        <v>839</v>
+      </c>
+      <c r="O345" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R345" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S345" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="T345" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="W345" s="31" t="s">
+        <v>1098</v>
+      </c>
     </row>
     <row r="346">
-      <c r="A346" s="36"/>
-      <c r="B346" s="36"/>
-      <c r="C346" s="36"/>
-      <c r="D346" s="36"/>
-      <c r="E346" s="36"/>
-      <c r="F346" s="36"/>
-      <c r="G346" s="36"/>
-      <c r="H346" s="36"/>
-      <c r="I346" s="36"/>
-      <c r="J346" s="36"/>
-      <c r="K346" s="36"/>
-      <c r="L346" s="36"/>
-      <c r="M346" s="36"/>
-      <c r="N346" s="36"/>
-      <c r="O346" s="36"/>
+      <c r="A346" s="28">
+        <v>45707.37915221065</v>
+      </c>
+      <c r="B346" s="29">
+        <v>45707.0</v>
+      </c>
+      <c r="C346" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D346" s="23">
+        <v>90.0</v>
+      </c>
+      <c r="E346" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="F346" s="23" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G346" s="29">
+        <v>29311.0</v>
+      </c>
+      <c r="H346" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I346" s="23" t="s">
+        <v>1100</v>
+      </c>
+      <c r="J346" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K346" s="23">
+        <v>78748.0</v>
+      </c>
+      <c r="L346" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M346" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N346" s="23" t="s">
+        <v>839</v>
+      </c>
+      <c r="O346" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R346" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S346" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="T346" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="W346" s="30" t="s">
+        <v>1101</v>
+      </c>
     </row>
     <row r="347">
-      <c r="A347" s="36"/>
-      <c r="B347" s="36"/>
-      <c r="C347" s="36"/>
-      <c r="D347" s="36"/>
-      <c r="E347" s="36"/>
-      <c r="F347" s="36"/>
-      <c r="G347" s="36"/>
-      <c r="H347" s="36"/>
-      <c r="I347" s="36"/>
-      <c r="J347" s="36"/>
-      <c r="K347" s="36"/>
-      <c r="L347" s="36"/>
-      <c r="M347" s="36"/>
-      <c r="N347" s="36"/>
-      <c r="O347" s="36"/>
+      <c r="A347" s="26">
+        <v>45707.389206168984</v>
+      </c>
+      <c r="B347" s="27">
+        <v>45707.0</v>
+      </c>
+      <c r="C347" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D347" s="17">
+        <v>90.0</v>
+      </c>
+      <c r="E347" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="F347" s="17" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G347" s="27">
+        <v>31657.0</v>
+      </c>
+      <c r="H347" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="I347" s="17" t="s">
+        <v>1103</v>
+      </c>
+      <c r="J347" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K347" s="17">
+        <v>78753.0</v>
+      </c>
+      <c r="L347" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M347" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N347" s="17" t="s">
+        <v>839</v>
+      </c>
+      <c r="O347" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R347" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S347" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="T347" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="W347" s="31" t="s">
+        <v>1104</v>
+      </c>
     </row>
     <row r="348">
-      <c r="A348" s="36"/>
-      <c r="B348" s="36"/>
-      <c r="C348" s="36"/>
-      <c r="D348" s="36"/>
-      <c r="E348" s="36"/>
-      <c r="F348" s="36"/>
-      <c r="G348" s="36"/>
-      <c r="H348" s="36"/>
-      <c r="I348" s="36"/>
-      <c r="J348" s="36"/>
-      <c r="K348" s="36"/>
-      <c r="L348" s="36"/>
-      <c r="M348" s="36"/>
-      <c r="N348" s="36"/>
-      <c r="O348" s="36"/>
+      <c r="A348" s="28">
+        <v>45707.39205751158</v>
+      </c>
+      <c r="B348" s="29">
+        <v>45707.0</v>
+      </c>
+      <c r="C348" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D348" s="23">
+        <v>90.0</v>
+      </c>
+      <c r="E348" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="F348" s="23" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G348" s="29">
+        <v>31657.0</v>
+      </c>
+      <c r="H348" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="I348" s="23" t="s">
+        <v>1103</v>
+      </c>
+      <c r="J348" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K348" s="23">
+        <v>78753.0</v>
+      </c>
+      <c r="L348" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M348" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N348" s="23" t="s">
+        <v>839</v>
+      </c>
+      <c r="O348" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R348" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S348" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="T348" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="W348" s="30" t="s">
+        <v>1104</v>
+      </c>
     </row>
     <row r="349">
-      <c r="A349" s="36"/>
-      <c r="B349" s="36"/>
-      <c r="C349" s="36"/>
-      <c r="D349" s="36"/>
-      <c r="E349" s="36"/>
-      <c r="F349" s="36"/>
-      <c r="G349" s="36"/>
-      <c r="H349" s="36"/>
-      <c r="I349" s="36"/>
-      <c r="J349" s="36"/>
-      <c r="K349" s="36"/>
-      <c r="L349" s="36"/>
-      <c r="M349" s="36"/>
-      <c r="N349" s="36"/>
-      <c r="O349" s="36"/>
+      <c r="A349" s="26">
+        <v>45707.447821724534</v>
+      </c>
+      <c r="B349" s="27">
+        <v>45707.0</v>
+      </c>
+      <c r="C349" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D349" s="17">
+        <v>90.0</v>
+      </c>
+      <c r="E349" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="F349" s="17" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G349" s="27">
+        <v>30525.0</v>
+      </c>
+      <c r="H349" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I349" s="17" t="s">
+        <v>1106</v>
+      </c>
+      <c r="J349" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K349" s="17">
+        <v>78758.0</v>
+      </c>
+      <c r="L349" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M349" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N349" s="17" t="s">
+        <v>839</v>
+      </c>
+      <c r="O349" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R349" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S349" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="T349" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="W349" s="31" t="s">
+        <v>1107</v>
+      </c>
     </row>
     <row r="350">
-      <c r="A350" s="36"/>
-      <c r="B350" s="36"/>
-      <c r="C350" s="36"/>
-      <c r="D350" s="36"/>
-      <c r="E350" s="36"/>
-      <c r="F350" s="36"/>
-      <c r="G350" s="36"/>
-      <c r="H350" s="36"/>
-      <c r="I350" s="36"/>
-      <c r="J350" s="36"/>
-      <c r="K350" s="36"/>
-      <c r="L350" s="36"/>
-      <c r="M350" s="36"/>
-      <c r="N350" s="36"/>
-      <c r="O350" s="36"/>
+      <c r="A350" s="28">
+        <v>45707.67877462963</v>
+      </c>
+      <c r="B350" s="29">
+        <v>45707.0</v>
+      </c>
+      <c r="C350" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D350" s="23">
+        <v>30.0</v>
+      </c>
+      <c r="E350" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="F350" s="23" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G350" s="29">
+        <v>24401.0</v>
+      </c>
+      <c r="H350" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I350" s="23" t="s">
+        <v>1109</v>
+      </c>
+      <c r="J350" s="23" t="s">
+        <v>1110</v>
+      </c>
+      <c r="K350" s="23">
+        <v>76513.0</v>
+      </c>
+      <c r="L350" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="M350" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="N350" s="23" t="s">
+        <v>1111</v>
+      </c>
+      <c r="O350" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R350" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S350" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="T350" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="W350" s="30" t="s">
+        <v>1112</v>
+      </c>
     </row>
     <row r="351">
-      <c r="A351" s="36"/>
-      <c r="B351" s="36"/>
-      <c r="C351" s="36"/>
-      <c r="D351" s="36"/>
-      <c r="E351" s="36"/>
-      <c r="F351" s="36"/>
-      <c r="G351" s="36"/>
-      <c r="H351" s="36"/>
-      <c r="I351" s="36"/>
-      <c r="J351" s="36"/>
-      <c r="K351" s="36"/>
-      <c r="L351" s="36"/>
-      <c r="M351" s="36"/>
-      <c r="N351" s="36"/>
-      <c r="O351" s="36"/>
+      <c r="A351" s="26">
+        <v>45707.68150853009</v>
+      </c>
+      <c r="B351" s="27">
+        <v>45707.0</v>
+      </c>
+      <c r="C351" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D351" s="17">
+        <v>90.0</v>
+      </c>
+      <c r="E351" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="F351" s="17" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G351" s="27">
+        <v>35578.0</v>
+      </c>
+      <c r="H351" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I351" s="17" t="s">
+        <v>1114</v>
+      </c>
+      <c r="J351" s="17" t="s">
+        <v>1110</v>
+      </c>
+      <c r="K351" s="17">
+        <v>78758.0</v>
+      </c>
+      <c r="L351" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M351" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N351" s="17" t="s">
+        <v>784</v>
+      </c>
+      <c r="O351" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R351" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S351" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="T351" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="W351" s="31" t="s">
+        <v>1115</v>
+      </c>
     </row>
     <row r="352">
-      <c r="A352" s="36"/>
-      <c r="B352" s="36"/>
-      <c r="C352" s="36"/>
-      <c r="D352" s="36"/>
-      <c r="E352" s="36"/>
-      <c r="F352" s="36"/>
-      <c r="G352" s="36"/>
-      <c r="H352" s="36"/>
-      <c r="I352" s="36"/>
-      <c r="J352" s="36"/>
-      <c r="K352" s="36"/>
-      <c r="L352" s="36"/>
-      <c r="M352" s="36"/>
-      <c r="N352" s="36"/>
-      <c r="O352" s="36"/>
+      <c r="A352" s="32">
+        <v>45707.758243206015</v>
+      </c>
+      <c r="B352" s="33">
+        <v>45707.0</v>
+      </c>
+      <c r="C352" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="D352" s="34">
+        <v>120.0</v>
+      </c>
+      <c r="E352" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="F352" s="34" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G352" s="33">
+        <v>30946.0</v>
+      </c>
+      <c r="H352" s="34" t="s">
+        <v>508</v>
+      </c>
+      <c r="I352" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="J352" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="L352" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="M352" s="34" t="s">
+        <v>1065</v>
+      </c>
+      <c r="N352" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="O352" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P352" s="34">
+        <v>164608.0</v>
+      </c>
+      <c r="Q352" s="34" t="s">
+        <v>508</v>
+      </c>
+      <c r="R352" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="S352" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="T352" s="34">
+        <v>60.0</v>
+      </c>
+      <c r="U352" s="34" t="s">
+        <v>1117</v>
+      </c>
+      <c r="W352" s="35" t="s">
+        <v>1118</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="36"/>
@@ -24981,6 +25602,210 @@
       <c r="N440" s="36"/>
       <c r="O440" s="36"/>
     </row>
+    <row r="441">
+      <c r="A441" s="36"/>
+      <c r="B441" s="36"/>
+      <c r="C441" s="36"/>
+      <c r="D441" s="36"/>
+      <c r="E441" s="36"/>
+      <c r="F441" s="36"/>
+      <c r="G441" s="36"/>
+      <c r="H441" s="36"/>
+      <c r="I441" s="36"/>
+      <c r="J441" s="36"/>
+      <c r="K441" s="36"/>
+      <c r="L441" s="36"/>
+      <c r="M441" s="36"/>
+      <c r="N441" s="36"/>
+      <c r="O441" s="36"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="36"/>
+      <c r="B442" s="36"/>
+      <c r="C442" s="36"/>
+      <c r="D442" s="36"/>
+      <c r="E442" s="36"/>
+      <c r="F442" s="36"/>
+      <c r="G442" s="36"/>
+      <c r="H442" s="36"/>
+      <c r="I442" s="36"/>
+      <c r="J442" s="36"/>
+      <c r="K442" s="36"/>
+      <c r="L442" s="36"/>
+      <c r="M442" s="36"/>
+      <c r="N442" s="36"/>
+      <c r="O442" s="36"/>
+    </row>
+    <row r="443">
+      <c r="A443" s="36"/>
+      <c r="B443" s="36"/>
+      <c r="C443" s="36"/>
+      <c r="D443" s="36"/>
+      <c r="E443" s="36"/>
+      <c r="F443" s="36"/>
+      <c r="G443" s="36"/>
+      <c r="H443" s="36"/>
+      <c r="I443" s="36"/>
+      <c r="J443" s="36"/>
+      <c r="K443" s="36"/>
+      <c r="L443" s="36"/>
+      <c r="M443" s="36"/>
+      <c r="N443" s="36"/>
+      <c r="O443" s="36"/>
+    </row>
+    <row r="444">
+      <c r="A444" s="36"/>
+      <c r="B444" s="36"/>
+      <c r="C444" s="36"/>
+      <c r="D444" s="36"/>
+      <c r="E444" s="36"/>
+      <c r="F444" s="36"/>
+      <c r="G444" s="36"/>
+      <c r="H444" s="36"/>
+      <c r="I444" s="36"/>
+      <c r="J444" s="36"/>
+      <c r="K444" s="36"/>
+      <c r="L444" s="36"/>
+      <c r="M444" s="36"/>
+      <c r="N444" s="36"/>
+      <c r="O444" s="36"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="36"/>
+      <c r="B445" s="36"/>
+      <c r="C445" s="36"/>
+      <c r="D445" s="36"/>
+      <c r="E445" s="36"/>
+      <c r="F445" s="36"/>
+      <c r="G445" s="36"/>
+      <c r="H445" s="36"/>
+      <c r="I445" s="36"/>
+      <c r="J445" s="36"/>
+      <c r="K445" s="36"/>
+      <c r="L445" s="36"/>
+      <c r="M445" s="36"/>
+      <c r="N445" s="36"/>
+      <c r="O445" s="36"/>
+    </row>
+    <row r="446">
+      <c r="A446" s="36"/>
+      <c r="B446" s="36"/>
+      <c r="C446" s="36"/>
+      <c r="D446" s="36"/>
+      <c r="E446" s="36"/>
+      <c r="F446" s="36"/>
+      <c r="G446" s="36"/>
+      <c r="H446" s="36"/>
+      <c r="I446" s="36"/>
+      <c r="J446" s="36"/>
+      <c r="K446" s="36"/>
+      <c r="L446" s="36"/>
+      <c r="M446" s="36"/>
+      <c r="N446" s="36"/>
+      <c r="O446" s="36"/>
+    </row>
+    <row r="447">
+      <c r="A447" s="36"/>
+      <c r="B447" s="36"/>
+      <c r="C447" s="36"/>
+      <c r="D447" s="36"/>
+      <c r="E447" s="36"/>
+      <c r="F447" s="36"/>
+      <c r="G447" s="36"/>
+      <c r="H447" s="36"/>
+      <c r="I447" s="36"/>
+      <c r="J447" s="36"/>
+      <c r="K447" s="36"/>
+      <c r="L447" s="36"/>
+      <c r="M447" s="36"/>
+      <c r="N447" s="36"/>
+      <c r="O447" s="36"/>
+    </row>
+    <row r="448">
+      <c r="A448" s="36"/>
+      <c r="B448" s="36"/>
+      <c r="C448" s="36"/>
+      <c r="D448" s="36"/>
+      <c r="E448" s="36"/>
+      <c r="F448" s="36"/>
+      <c r="G448" s="36"/>
+      <c r="H448" s="36"/>
+      <c r="I448" s="36"/>
+      <c r="J448" s="36"/>
+      <c r="K448" s="36"/>
+      <c r="L448" s="36"/>
+      <c r="M448" s="36"/>
+      <c r="N448" s="36"/>
+      <c r="O448" s="36"/>
+    </row>
+    <row r="449">
+      <c r="A449" s="36"/>
+      <c r="B449" s="36"/>
+      <c r="C449" s="36"/>
+      <c r="D449" s="36"/>
+      <c r="E449" s="36"/>
+      <c r="F449" s="36"/>
+      <c r="G449" s="36"/>
+      <c r="H449" s="36"/>
+      <c r="I449" s="36"/>
+      <c r="J449" s="36"/>
+      <c r="K449" s="36"/>
+      <c r="L449" s="36"/>
+      <c r="M449" s="36"/>
+      <c r="N449" s="36"/>
+      <c r="O449" s="36"/>
+    </row>
+    <row r="450">
+      <c r="A450" s="36"/>
+      <c r="B450" s="36"/>
+      <c r="C450" s="36"/>
+      <c r="D450" s="36"/>
+      <c r="E450" s="36"/>
+      <c r="F450" s="36"/>
+      <c r="G450" s="36"/>
+      <c r="H450" s="36"/>
+      <c r="I450" s="36"/>
+      <c r="J450" s="36"/>
+      <c r="K450" s="36"/>
+      <c r="L450" s="36"/>
+      <c r="M450" s="36"/>
+      <c r="N450" s="36"/>
+      <c r="O450" s="36"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="36"/>
+      <c r="B451" s="36"/>
+      <c r="C451" s="36"/>
+      <c r="D451" s="36"/>
+      <c r="E451" s="36"/>
+      <c r="F451" s="36"/>
+      <c r="G451" s="36"/>
+      <c r="H451" s="36"/>
+      <c r="I451" s="36"/>
+      <c r="J451" s="36"/>
+      <c r="K451" s="36"/>
+      <c r="L451" s="36"/>
+      <c r="M451" s="36"/>
+      <c r="N451" s="36"/>
+      <c r="O451" s="36"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="36"/>
+      <c r="B452" s="36"/>
+      <c r="C452" s="36"/>
+      <c r="D452" s="36"/>
+      <c r="E452" s="36"/>
+      <c r="F452" s="36"/>
+      <c r="G452" s="36"/>
+      <c r="H452" s="36"/>
+      <c r="I452" s="36"/>
+      <c r="J452" s="36"/>
+      <c r="K452" s="36"/>
+      <c r="L452" s="36"/>
+      <c r="M452" s="36"/>
+      <c r="N452" s="36"/>
+      <c r="O452" s="36"/>
+    </row>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/data/Navigation_Responses.xlsx
+++ b/data/Navigation_Responses.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4315" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5191" uniqueCount="1356">
   <si>
     <t>Timestamp</t>
   </si>
@@ -19,7 +19,7 @@
     <t>Date of Activity</t>
   </si>
   <si>
-    <t>Person filling out this form:</t>
+    <t>Person submitting this form:</t>
   </si>
   <si>
     <t>Activity Duration (minutes):</t>
@@ -3369,6 +3369,717 @@
   </si>
   <si>
     <t xml:space="preserve">HMIS protected </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terrance </t>
+  </si>
+  <si>
+    <t>1021 Clayton Ln</t>
+  </si>
+  <si>
+    <t>Client came to PCP appointment 2/19</t>
+  </si>
+  <si>
+    <t>Candler</t>
+  </si>
+  <si>
+    <t>Jean Junior</t>
+  </si>
+  <si>
+    <t>1206 Fairfield Dr.</t>
+  </si>
+  <si>
+    <t>Client came to PCP appointment 2/20</t>
+  </si>
+  <si>
+    <t>Latortue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15148 Eiler Rd. </t>
+  </si>
+  <si>
+    <t>Client came to an PCP appointment 2/20 established care</t>
+  </si>
+  <si>
+    <t>Puente Salazar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristian Rolando </t>
+  </si>
+  <si>
+    <t>7700 Burleson Rd.</t>
+  </si>
+  <si>
+    <t>Client came to an PCP appointment to establish care 2/20</t>
+  </si>
+  <si>
+    <t>Banegas Suazo</t>
+  </si>
+  <si>
+    <t>Harry C</t>
+  </si>
+  <si>
+    <t>2008 Farm to Market Rd 812</t>
+  </si>
+  <si>
+    <t>Cedar Creek Tx</t>
+  </si>
+  <si>
+    <t>Bastrop County</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washington </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6110 Caroline </t>
+  </si>
+  <si>
+    <t>Client set an appointment for PCP on Pflugerville 2/21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zamora Eucebio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noe </t>
+  </si>
+  <si>
+    <t>3154 E. HWY 71</t>
+  </si>
+  <si>
+    <t>Client call to confirm his appointment, need to know if Dr Jenkins have the results</t>
+  </si>
+  <si>
+    <t>Jaimes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extended Stay America (Host Hotel) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMIS Protected </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel/Food/Basic Needs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPID Protected </t>
+  </si>
+  <si>
+    <t>The Bungalows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">took client to Integral Care for required intake forms for PSH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transportation/Food </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garfield </t>
+  </si>
+  <si>
+    <t>1702 J.J Seabrook Dr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austin TX </t>
+  </si>
+  <si>
+    <t>Client call to see if he has an upcoming appointment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hall </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECHO PSH Pilot Program: Requested Hotel extension while PSH packet is uploaded/Move in anticipated any day now. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel (Bridge Sheltering) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">last known area was St. John. Connected with Hungry Hill to help me search for client </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECHO PSH Pilot Program: Client Assigned to BMHC, initial search for client beginning. She has been assigned to the Bungalows. Our team with navigate in tandem with Hubert from Hungry Hill (Director of Outreach) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mileage/Gas for Navigator </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office (remote) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unhoused (Camping site is St. Johns Park) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECHO PSH Pilot Program : HMIS Case Notes/Program entry/CM assigned </t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>413 Swenson Farms Blvd Apt 821</t>
+  </si>
+  <si>
+    <t>Client called to schedule a well men exam Feb 25 @12:45am</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romero </t>
+  </si>
+  <si>
+    <t>3154 E HWY 71 BLDG 2</t>
+  </si>
+  <si>
+    <t>Client came to PCP appointment on 2/24</t>
+  </si>
+  <si>
+    <t>Cebollero</t>
+  </si>
+  <si>
+    <t>Hakim</t>
+  </si>
+  <si>
+    <t>6903 Colony Park Dr</t>
+  </si>
+  <si>
+    <t>client came in for a PCP appt w/ Dr. Jenkins</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel </t>
+  </si>
+  <si>
+    <t>1100 Reinli St. Apt. 250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refer to Dr Clark and set an appointment for PCP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linares </t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>12343 Hymeadows #3C</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Phone Contact: Seeking employment, immediate housing</t>
+  </si>
+  <si>
+    <t>2hrs. 30 min</t>
+  </si>
+  <si>
+    <t>Devon Bell</t>
+  </si>
+  <si>
+    <t>Devone</t>
+  </si>
+  <si>
+    <t>Housing: Today, he was evicted. I referred him to the ALCDC Life program, which will assist with the application for the Helper of Change program.</t>
+  </si>
+  <si>
+    <t>30 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thoe </t>
+  </si>
+  <si>
+    <t>7201 Hart Lane #1047</t>
+  </si>
+  <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>Patrick Allen</t>
+  </si>
+  <si>
+    <t>15110 Kent Justin Drive</t>
+  </si>
+  <si>
+    <t>Maxwell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernando Jose </t>
+  </si>
+  <si>
+    <t>6910 Carver Ave</t>
+  </si>
+  <si>
+    <t>Client came to PCP appointment</t>
+  </si>
+  <si>
+    <t>Perez Gomez</t>
+  </si>
+  <si>
+    <t>Toya Craney</t>
+  </si>
+  <si>
+    <t>PHONE CONTACT</t>
+  </si>
+  <si>
+    <t>PHONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santos Israel </t>
+  </si>
+  <si>
+    <t>PO Box 378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prairie Lea </t>
+  </si>
+  <si>
+    <t>Caceres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonathan Theodore </t>
+  </si>
+  <si>
+    <t>1109 Ebert Ave Unit A</t>
+  </si>
+  <si>
+    <t>Client came to PCP appointment to establish care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walker </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jason </t>
+  </si>
+  <si>
+    <t>Client came to a PCP appointment to establish care</t>
+  </si>
+  <si>
+    <t>Kirby</t>
+  </si>
+  <si>
+    <t>Aldo</t>
+  </si>
+  <si>
+    <t>1601 E Slaughter Ln #41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client came in for PCP appt w/ Dr. Jenkins </t>
+  </si>
+  <si>
+    <t>Rodriguez Rostro</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>14120 Ceylon Tea Cir</t>
+  </si>
+  <si>
+    <t>Osby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nanaldin </t>
+  </si>
+  <si>
+    <t>14424 Sitlstone Rd</t>
+  </si>
+  <si>
+    <t>Client call to set an appointment for PCP</t>
+  </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ronal J </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2101 Burton Ln </t>
+  </si>
+  <si>
+    <t>Client came to a PCP appointment for Physical 2/27</t>
+  </si>
+  <si>
+    <t>Hernandez Figueroa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obaid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13904 Theodore St </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manor TX </t>
+  </si>
+  <si>
+    <t>Client came to PCP appointment 2/27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melvin Louis </t>
+  </si>
+  <si>
+    <t>3154 HWY 71 E</t>
+  </si>
+  <si>
+    <t>De Valle TX</t>
+  </si>
+  <si>
+    <t>Client came to a PCP appointment 2/27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morrow </t>
+  </si>
+  <si>
+    <t>Christopher Michael</t>
+  </si>
+  <si>
+    <t>Motel 6</t>
+  </si>
+  <si>
+    <t>Client came for assistance with MAP application and upcoming PCP appointment</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keith </t>
+  </si>
+  <si>
+    <t>unhoused</t>
+  </si>
+  <si>
+    <t>Refer to Dr. Clark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sterling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan </t>
+  </si>
+  <si>
+    <t>travis</t>
+  </si>
+  <si>
+    <t>Came today for assistance with MAP application</t>
+  </si>
+  <si>
+    <t>Zamora Eucebio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6110 Caroline Ln </t>
+  </si>
+  <si>
+    <t>Client has an upcoming appointment with PCP</t>
+  </si>
+  <si>
+    <t>Mattas</t>
+  </si>
+  <si>
+    <t>Client need help with multiple needs housing and check on his MAP status.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scott </t>
+  </si>
+  <si>
+    <t>Referring to Ashley(Integral)</t>
+  </si>
+  <si>
+    <t>Christman</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Helping with documents and send email</t>
+  </si>
+  <si>
+    <t>Hertz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeremiah </t>
+  </si>
+  <si>
+    <t>11741 Channing Dr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Referring to Ashley (integral Care) Client </t>
+  </si>
+  <si>
+    <t>Cavazos</t>
+  </si>
+  <si>
+    <t>refer to Ashley (integral care) client need therapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cavazos </t>
+  </si>
+  <si>
+    <t>Jairo</t>
+  </si>
+  <si>
+    <t>2906 E. MLK Jr</t>
+  </si>
+  <si>
+    <t>Client has an upcoming appointment with PCP 4/8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rydell </t>
+  </si>
+  <si>
+    <t>8548 North Lamar Boulevard</t>
+  </si>
+  <si>
+    <t>Specialty Care Referral</t>
+  </si>
+  <si>
+    <t>Need help with the referrals of Ophthalmology and the update of HD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Early </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaison </t>
+  </si>
+  <si>
+    <t>5800 Wellington Dr. #102</t>
+  </si>
+  <si>
+    <t>job search and rental assistance</t>
+  </si>
+  <si>
+    <t>Fuentes Bonett</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sean </t>
+  </si>
+  <si>
+    <t>3300 Taylor Falls Drive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client came in for pcp appt w/ Dr. Jenkins </t>
+  </si>
+  <si>
+    <t>Gooden</t>
+  </si>
+  <si>
+    <t>Eduardo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1904 Barge St </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client came in &amp; COMPLETED PCP appt w/ Dr. Jenkins </t>
+  </si>
+  <si>
+    <t>Resendiz Ramirez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisco </t>
+  </si>
+  <si>
+    <t>6710 Cameron Rd</t>
+  </si>
+  <si>
+    <t>Salinas Paramo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joe </t>
+  </si>
+  <si>
+    <t>12024 Manchaca Rd</t>
+  </si>
+  <si>
+    <t>Nash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lira </t>
+  </si>
+  <si>
+    <t>2121 W. Williams Cannon Dr #122</t>
+  </si>
+  <si>
+    <t>Client came to PCP appointment to establish care on 1/29</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armando </t>
+  </si>
+  <si>
+    <t>1803 E. Anderson Ln # 2128</t>
+  </si>
+  <si>
+    <t>Client came to a PCP appointment ON 1/13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodriguez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana </t>
+  </si>
+  <si>
+    <t>1704 Nelms Dr #915</t>
+  </si>
+  <si>
+    <t>Client came for assistance with MAP application only</t>
+  </si>
+  <si>
+    <t>Molina De Hernandez</t>
+  </si>
+  <si>
+    <t>Elda Maritza</t>
+  </si>
+  <si>
+    <t>8000 Decker Ln #913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The client requested assistance with an appointment on 3/13 at CUC Loyola. </t>
+  </si>
+  <si>
+    <t>Lizardo Alvarado</t>
+  </si>
+  <si>
+    <t>Christopher Jon</t>
+  </si>
+  <si>
+    <t>505 Barton Spring #125</t>
+  </si>
+  <si>
+    <t>Client came for PCP appointment to establish care 2/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonathan </t>
+  </si>
+  <si>
+    <t>1109 Ebert Ave</t>
+  </si>
+  <si>
+    <t>Client came to PCP appointment to establish care 2/25</t>
+  </si>
+  <si>
+    <t>Marcus R</t>
+  </si>
+  <si>
+    <t>5300 Edenbourgh Ln</t>
+  </si>
+  <si>
+    <t>Client came to PCP appointment to establish care 2/26 (Trans)</t>
+  </si>
+  <si>
+    <t>Jayro</t>
+  </si>
+  <si>
+    <t>6220 Andes Peak Trail</t>
+  </si>
+  <si>
+    <t>Client came to PCP appointment on 2/27</t>
+  </si>
+  <si>
+    <t>Salazar De la Paz</t>
+  </si>
+  <si>
+    <t>9500 Dessau Rd # 1522</t>
+  </si>
+  <si>
+    <t>Client came to a PCP appointment 2/10</t>
+  </si>
+  <si>
+    <t>Hernandez Filidor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2712 Pablo Ride </t>
+  </si>
+  <si>
+    <t>Pflugerville Tx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client came to PCP appointment </t>
+  </si>
+  <si>
+    <t>Brito</t>
+  </si>
+  <si>
+    <t>Shuaib Abdul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unhoused </t>
+  </si>
+  <si>
+    <t>Charmbers</t>
+  </si>
+  <si>
+    <t>Lorenzo Albiter</t>
+  </si>
+  <si>
+    <t>8009 Topanga Lane</t>
+  </si>
+  <si>
+    <t>Client came for a PCP appointment to establish care</t>
+  </si>
+  <si>
+    <t>Solis</t>
+  </si>
+  <si>
+    <t>Sergio Jr</t>
+  </si>
+  <si>
+    <t>160 Travis Rd</t>
+  </si>
+  <si>
+    <t>Paige Tx</t>
+  </si>
+  <si>
+    <t>Client came to a PCP appointment to establish care 2/10</t>
+  </si>
+  <si>
+    <t>Sifuentes</t>
+  </si>
+  <si>
+    <t>Cyd Lavan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1808 Webberville Rd </t>
+  </si>
+  <si>
+    <t>Client came to a PCP appointment (transferred) 2/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexander </t>
+  </si>
+  <si>
+    <t>Eric Roberts</t>
+  </si>
+  <si>
+    <t>South Bridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">505 Barton Springs </t>
+  </si>
+  <si>
+    <t>client came to sign up for MAP</t>
+  </si>
+  <si>
+    <t>Kellie Marie Cox</t>
+  </si>
+  <si>
+    <t>Malcolm</t>
+  </si>
+  <si>
+    <t>2711 South interstate 35</t>
+  </si>
+  <si>
+    <t>Client came in to set up MAP application /set appointment at clinic April 9 @7:45 am/set up transportation as well for client to and from appointment</t>
+  </si>
+  <si>
+    <t>Garrett</t>
   </si>
 </sst>
 </file>
@@ -3743,11 +4454,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:W352" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:W420" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="23">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="Date of Activity" id="2"/>
-    <tableColumn name="Person filling out this form:" id="3"/>
+    <tableColumn name="Person submitting this form:" id="3"/>
     <tableColumn name="Activity Duration (minutes):" id="4"/>
     <tableColumn name="Location Encountered:" id="5"/>
     <tableColumn name="Individual's First Name:" id="6"/>
@@ -24042,1225 +24753,4030 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="32">
+      <c r="A352" s="28">
         <v>45707.758243206015</v>
       </c>
-      <c r="B352" s="33">
+      <c r="B352" s="29">
         <v>45707.0</v>
       </c>
-      <c r="C352" s="34" t="s">
+      <c r="C352" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="D352" s="34">
+      <c r="D352" s="23">
         <v>120.0</v>
       </c>
-      <c r="E352" s="34" t="s">
+      <c r="E352" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="F352" s="34" t="s">
+      <c r="F352" s="23" t="s">
         <v>1116</v>
       </c>
-      <c r="G352" s="33">
+      <c r="G352" s="29">
         <v>30946.0</v>
       </c>
-      <c r="H352" s="34" t="s">
+      <c r="H352" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="I352" s="34" t="s">
+      <c r="I352" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="J352" s="34" t="s">
+      <c r="J352" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="L352" s="34" t="s">
+      <c r="L352" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="M352" s="34" t="s">
+      <c r="M352" s="23" t="s">
         <v>1065</v>
       </c>
-      <c r="N352" s="34" t="s">
+      <c r="N352" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="O352" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="P352" s="34">
+      <c r="O352" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="P352" s="23">
         <v>164608.0</v>
       </c>
-      <c r="Q352" s="34" t="s">
+      <c r="Q352" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="R352" s="34" t="s">
+      <c r="R352" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="S352" s="34" t="s">
+      <c r="S352" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="T352" s="34">
+      <c r="T352" s="23">
         <v>60.0</v>
       </c>
-      <c r="U352" s="34" t="s">
+      <c r="U352" s="23" t="s">
         <v>1117</v>
       </c>
-      <c r="W352" s="35" t="s">
+      <c r="W352" s="30" t="s">
         <v>1118</v>
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="36"/>
-      <c r="B353" s="36"/>
-      <c r="C353" s="36"/>
-      <c r="D353" s="36"/>
-      <c r="E353" s="36"/>
-      <c r="F353" s="36"/>
-      <c r="G353" s="36"/>
-      <c r="H353" s="36"/>
-      <c r="I353" s="36"/>
-      <c r="J353" s="36"/>
-      <c r="K353" s="36"/>
-      <c r="L353" s="36"/>
-      <c r="M353" s="36"/>
-      <c r="N353" s="36"/>
-      <c r="O353" s="36"/>
+      <c r="A353" s="26">
+        <v>45708.42304334491</v>
+      </c>
+      <c r="B353" s="27">
+        <v>45707.0</v>
+      </c>
+      <c r="C353" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D353" s="17">
+        <v>90.0</v>
+      </c>
+      <c r="E353" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="F353" s="17" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G353" s="27">
+        <v>27028.0</v>
+      </c>
+      <c r="H353" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I353" s="17" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J353" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="K353" s="17">
+        <v>78723.0</v>
+      </c>
+      <c r="L353" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M353" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N353" s="17" t="s">
+        <v>1121</v>
+      </c>
+      <c r="O353" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R353" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S353" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="T353" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="W353" s="31" t="s">
+        <v>1122</v>
+      </c>
     </row>
     <row r="354">
-      <c r="A354" s="36"/>
-      <c r="B354" s="36"/>
-      <c r="C354" s="36"/>
-      <c r="D354" s="36"/>
-      <c r="E354" s="36"/>
-      <c r="F354" s="36"/>
-      <c r="G354" s="36"/>
-      <c r="H354" s="36"/>
-      <c r="I354" s="36"/>
-      <c r="J354" s="36"/>
-      <c r="K354" s="36"/>
-      <c r="L354" s="36"/>
-      <c r="M354" s="36"/>
-      <c r="N354" s="36"/>
-      <c r="O354" s="36"/>
+      <c r="A354" s="28">
+        <v>45708.43209905093</v>
+      </c>
+      <c r="B354" s="29">
+        <v>45708.0</v>
+      </c>
+      <c r="C354" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D354" s="23">
+        <v>90.0</v>
+      </c>
+      <c r="E354" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="F354" s="23" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G354" s="29">
+        <v>35678.0</v>
+      </c>
+      <c r="H354" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="I354" s="23" t="s">
+        <v>1124</v>
+      </c>
+      <c r="J354" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="K354" s="23">
+        <v>78758.0</v>
+      </c>
+      <c r="L354" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M354" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N354" s="23" t="s">
+        <v>1125</v>
+      </c>
+      <c r="O354" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R354" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S354" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="T354" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="W354" s="30" t="s">
+        <v>1126</v>
+      </c>
     </row>
     <row r="355">
-      <c r="A355" s="36"/>
-      <c r="B355" s="36"/>
-      <c r="C355" s="36"/>
-      <c r="D355" s="36"/>
-      <c r="E355" s="36"/>
-      <c r="F355" s="36"/>
-      <c r="G355" s="36"/>
-      <c r="H355" s="36"/>
-      <c r="I355" s="36"/>
-      <c r="J355" s="36"/>
-      <c r="K355" s="36"/>
-      <c r="L355" s="36"/>
-      <c r="M355" s="36"/>
-      <c r="N355" s="36"/>
-      <c r="O355" s="36"/>
+      <c r="A355" s="26">
+        <v>45708.49236940972</v>
+      </c>
+      <c r="B355" s="27">
+        <v>45708.0</v>
+      </c>
+      <c r="C355" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D355" s="17">
+        <v>90.0</v>
+      </c>
+      <c r="E355" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="F355" s="17" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G355" s="27">
+        <v>30675.0</v>
+      </c>
+      <c r="H355" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I355" s="17" t="s">
+        <v>1128</v>
+      </c>
+      <c r="J355" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="K355" s="17">
+        <v>78719.0</v>
+      </c>
+      <c r="L355" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="M355" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N355" s="17" t="s">
+        <v>1129</v>
+      </c>
+      <c r="O355" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R355" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S355" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="T355" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="W355" s="31" t="s">
+        <v>1130</v>
+      </c>
     </row>
     <row r="356">
-      <c r="A356" s="36"/>
-      <c r="B356" s="36"/>
-      <c r="C356" s="36"/>
-      <c r="D356" s="36"/>
-      <c r="E356" s="36"/>
-      <c r="F356" s="36"/>
-      <c r="G356" s="36"/>
-      <c r="H356" s="36"/>
-      <c r="I356" s="36"/>
-      <c r="J356" s="36"/>
-      <c r="K356" s="36"/>
-      <c r="L356" s="36"/>
-      <c r="M356" s="36"/>
-      <c r="N356" s="36"/>
-      <c r="O356" s="36"/>
+      <c r="A356" s="28">
+        <v>45708.50067340278</v>
+      </c>
+      <c r="B356" s="29">
+        <v>45708.0</v>
+      </c>
+      <c r="C356" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D356" s="23">
+        <v>90.0</v>
+      </c>
+      <c r="E356" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="F356" s="23" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G356" s="29">
+        <v>35135.0</v>
+      </c>
+      <c r="H356" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="I356" s="23" t="s">
+        <v>1132</v>
+      </c>
+      <c r="J356" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="K356" s="23">
+        <v>78744.0</v>
+      </c>
+      <c r="L356" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="M356" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N356" s="23" t="s">
+        <v>1133</v>
+      </c>
+      <c r="O356" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R356" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S356" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="T356" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="W356" s="30" t="s">
+        <v>1134</v>
+      </c>
     </row>
     <row r="357">
-      <c r="A357" s="36"/>
-      <c r="B357" s="36"/>
-      <c r="C357" s="36"/>
-      <c r="D357" s="36"/>
-      <c r="E357" s="36"/>
-      <c r="F357" s="36"/>
-      <c r="G357" s="36"/>
-      <c r="H357" s="36"/>
-      <c r="I357" s="36"/>
-      <c r="J357" s="36"/>
-      <c r="K357" s="36"/>
-      <c r="L357" s="36"/>
-      <c r="M357" s="36"/>
-      <c r="N357" s="36"/>
-      <c r="O357" s="36"/>
+      <c r="A357" s="26">
+        <v>45708.60389665509</v>
+      </c>
+      <c r="B357" s="27">
+        <v>45708.0</v>
+      </c>
+      <c r="C357" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D357" s="17">
+        <v>30.0</v>
+      </c>
+      <c r="E357" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="F357" s="17" t="s">
+        <v>1135</v>
+      </c>
+      <c r="G357" s="27">
+        <v>25592.0</v>
+      </c>
+      <c r="H357" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I357" s="17" t="s">
+        <v>1136</v>
+      </c>
+      <c r="J357" s="17" t="s">
+        <v>1137</v>
+      </c>
+      <c r="K357" s="17">
+        <v>78612.0</v>
+      </c>
+      <c r="L357" s="17" t="s">
+        <v>1138</v>
+      </c>
+      <c r="M357" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N357" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="O357" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="R357" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S357" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="T357" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="W357" s="31" t="s">
+        <v>1139</v>
+      </c>
     </row>
     <row r="358">
-      <c r="A358" s="36"/>
-      <c r="B358" s="36"/>
-      <c r="C358" s="36"/>
-      <c r="D358" s="36"/>
-      <c r="E358" s="36"/>
-      <c r="F358" s="36"/>
-      <c r="G358" s="36"/>
-      <c r="H358" s="36"/>
-      <c r="I358" s="36"/>
-      <c r="J358" s="36"/>
-      <c r="K358" s="36"/>
-      <c r="L358" s="36"/>
-      <c r="M358" s="36"/>
-      <c r="N358" s="36"/>
-      <c r="O358" s="36"/>
+      <c r="A358" s="28">
+        <v>45708.645295462964</v>
+      </c>
+      <c r="B358" s="29">
+        <v>45708.0</v>
+      </c>
+      <c r="C358" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D358" s="23">
+        <v>30.0</v>
+      </c>
+      <c r="E358" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="F358" s="23" t="s">
+        <v>963</v>
+      </c>
+      <c r="G358" s="29">
+        <v>26337.0</v>
+      </c>
+      <c r="H358" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I358" s="23" t="s">
+        <v>1140</v>
+      </c>
+      <c r="J358" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="K358" s="23">
+        <v>78724.0</v>
+      </c>
+      <c r="M358" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N358" s="23" t="s">
+        <v>1141</v>
+      </c>
+      <c r="O358" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R358" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S358" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="T358" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="W358" s="30" t="s">
+        <v>1142</v>
+      </c>
     </row>
     <row r="359">
-      <c r="A359" s="36"/>
-      <c r="B359" s="36"/>
-      <c r="C359" s="36"/>
-      <c r="D359" s="36"/>
-      <c r="E359" s="36"/>
-      <c r="F359" s="36"/>
-      <c r="G359" s="36"/>
-      <c r="H359" s="36"/>
-      <c r="I359" s="36"/>
-      <c r="J359" s="36"/>
-      <c r="K359" s="36"/>
-      <c r="L359" s="36"/>
-      <c r="M359" s="36"/>
-      <c r="N359" s="36"/>
-      <c r="O359" s="36"/>
+      <c r="A359" s="26">
+        <v>45709.381881319445</v>
+      </c>
+      <c r="B359" s="27">
+        <v>45709.0</v>
+      </c>
+      <c r="C359" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D359" s="17">
+        <v>15.0</v>
+      </c>
+      <c r="E359" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="F359" s="17" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G359" s="27">
+        <v>30016.0</v>
+      </c>
+      <c r="H359" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="I359" s="17" t="s">
+        <v>1144</v>
+      </c>
+      <c r="J359" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="K359" s="17">
+        <v>78617.0</v>
+      </c>
+      <c r="L359" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M359" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N359" s="17" t="s">
+        <v>1145</v>
+      </c>
+      <c r="O359" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="R359" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S359" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="T359" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="W359" s="31" t="s">
+        <v>1146</v>
+      </c>
     </row>
     <row r="360">
-      <c r="A360" s="36"/>
-      <c r="B360" s="36"/>
-      <c r="C360" s="36"/>
-      <c r="D360" s="36"/>
-      <c r="E360" s="36"/>
-      <c r="F360" s="36"/>
-      <c r="G360" s="36"/>
-      <c r="H360" s="36"/>
-      <c r="I360" s="36"/>
-      <c r="J360" s="36"/>
-      <c r="K360" s="36"/>
-      <c r="L360" s="36"/>
-      <c r="M360" s="36"/>
-      <c r="N360" s="36"/>
-      <c r="O360" s="36"/>
+      <c r="A360" s="28">
+        <v>45709.52155454861</v>
+      </c>
+      <c r="B360" s="29">
+        <v>45699.0</v>
+      </c>
+      <c r="C360" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="D360" s="23">
+        <v>90.0</v>
+      </c>
+      <c r="E360" s="23" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F360" s="23" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G360" s="29">
+        <v>30946.0</v>
+      </c>
+      <c r="H360" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="I360" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="J360" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="K360" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="L360" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="M360" s="23" t="s">
+        <v>1065</v>
+      </c>
+      <c r="N360" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="O360" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="P360" s="23">
+        <v>164608.0</v>
+      </c>
+      <c r="Q360" s="23" t="s">
+        <v>1149</v>
+      </c>
+      <c r="R360" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="S360" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="T360" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="U360" s="23" t="s">
+        <v>1150</v>
+      </c>
+      <c r="W360" s="30" t="s">
+        <v>1151</v>
+      </c>
     </row>
     <row r="361">
-      <c r="A361" s="36"/>
-      <c r="B361" s="36"/>
-      <c r="C361" s="36"/>
-      <c r="D361" s="36"/>
-      <c r="E361" s="36"/>
-      <c r="F361" s="36"/>
-      <c r="G361" s="36"/>
-      <c r="H361" s="36"/>
-      <c r="I361" s="36"/>
-      <c r="J361" s="36"/>
-      <c r="K361" s="36"/>
-      <c r="L361" s="36"/>
-      <c r="M361" s="36"/>
-      <c r="N361" s="36"/>
-      <c r="O361" s="36"/>
+      <c r="A361" s="26">
+        <v>45709.52403027778</v>
+      </c>
+      <c r="B361" s="27">
+        <v>45705.0</v>
+      </c>
+      <c r="C361" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="D361" s="17">
+        <v>90.0</v>
+      </c>
+      <c r="E361" s="17" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F361" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="G361" s="27">
+        <v>30946.0</v>
+      </c>
+      <c r="H361" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="L361" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="M361" s="17" t="s">
+        <v>1065</v>
+      </c>
+      <c r="N361" s="17" t="s">
+        <v>1153</v>
+      </c>
+      <c r="O361" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="P361" s="17">
+        <v>164608.0</v>
+      </c>
+      <c r="Q361" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="R361" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="S361" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="T361" s="17">
+        <v>60.0</v>
+      </c>
+      <c r="U361" s="17" t="s">
+        <v>1154</v>
+      </c>
+      <c r="W361" s="31" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="362">
-      <c r="A362" s="36"/>
-      <c r="B362" s="36"/>
-      <c r="C362" s="36"/>
-      <c r="D362" s="36"/>
-      <c r="E362" s="36"/>
-      <c r="F362" s="36"/>
-      <c r="G362" s="36"/>
-      <c r="H362" s="36"/>
-      <c r="I362" s="36"/>
-      <c r="J362" s="36"/>
-      <c r="K362" s="36"/>
-      <c r="L362" s="36"/>
-      <c r="M362" s="36"/>
-      <c r="N362" s="36"/>
-      <c r="O362" s="36"/>
+      <c r="A362" s="28">
+        <v>45709.52622490741</v>
+      </c>
+      <c r="B362" s="29">
+        <v>45709.0</v>
+      </c>
+      <c r="C362" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D362" s="23">
+        <v>15.0</v>
+      </c>
+      <c r="E362" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="F362" s="23" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G362" s="29">
+        <v>23370.0</v>
+      </c>
+      <c r="H362" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I362" s="23" t="s">
+        <v>1156</v>
+      </c>
+      <c r="J362" s="23" t="s">
+        <v>1157</v>
+      </c>
+      <c r="K362" s="23">
+        <v>78721.0</v>
+      </c>
+      <c r="L362" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="M362" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N362" s="23" t="s">
+        <v>1158</v>
+      </c>
+      <c r="O362" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="R362" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S362" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="T362" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="W362" s="30" t="s">
+        <v>1159</v>
+      </c>
     </row>
     <row r="363">
-      <c r="A363" s="36"/>
-      <c r="B363" s="36"/>
-      <c r="C363" s="36"/>
-      <c r="D363" s="36"/>
-      <c r="E363" s="36"/>
-      <c r="F363" s="36"/>
-      <c r="G363" s="36"/>
-      <c r="H363" s="36"/>
-      <c r="I363" s="36"/>
-      <c r="J363" s="36"/>
-      <c r="K363" s="36"/>
-      <c r="L363" s="36"/>
-      <c r="M363" s="36"/>
-      <c r="N363" s="36"/>
-      <c r="O363" s="36"/>
+      <c r="A363" s="26">
+        <v>45709.52623131944</v>
+      </c>
+      <c r="B363" s="27">
+        <v>45702.0</v>
+      </c>
+      <c r="C363" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="D363" s="17">
+        <v>30.0</v>
+      </c>
+      <c r="E363" s="17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F363" s="17" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G363" s="27">
+        <v>45921.0</v>
+      </c>
+      <c r="H363" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="I363" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="J363" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="K363" s="17">
+        <v>78758.0</v>
+      </c>
+      <c r="L363" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M363" s="17" t="s">
+        <v>1065</v>
+      </c>
+      <c r="N363" s="17" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O363" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="P363" s="17">
+        <v>164608.0</v>
+      </c>
+      <c r="Q363" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="R363" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="S363" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="T363" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="U363" s="17" t="s">
+        <v>1161</v>
+      </c>
+      <c r="W363" s="31" t="s">
+        <v>1148</v>
+      </c>
     </row>
     <row r="364">
-      <c r="A364" s="36"/>
-      <c r="B364" s="36"/>
-      <c r="C364" s="36"/>
-      <c r="D364" s="36"/>
-      <c r="E364" s="36"/>
-      <c r="F364" s="36"/>
-      <c r="G364" s="36"/>
-      <c r="H364" s="36"/>
-      <c r="I364" s="36"/>
-      <c r="J364" s="36"/>
-      <c r="K364" s="36"/>
-      <c r="L364" s="36"/>
-      <c r="M364" s="36"/>
-      <c r="N364" s="36"/>
-      <c r="O364" s="36"/>
+      <c r="A364" s="28">
+        <v>45709.529604930554</v>
+      </c>
+      <c r="B364" s="29">
+        <v>45698.0</v>
+      </c>
+      <c r="C364" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="D364" s="23">
+        <v>120.0</v>
+      </c>
+      <c r="E364" s="23" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F364" s="23" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G364" s="29">
+        <v>45921.0</v>
+      </c>
+      <c r="H364" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="I364" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="J364" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L364" s="23">
+        <v>78758.0</v>
+      </c>
+      <c r="M364" s="23" t="s">
+        <v>1065</v>
+      </c>
+      <c r="N364" s="23" t="s">
+        <v>1163</v>
+      </c>
+      <c r="O364" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="P364" s="23">
+        <v>164608.0</v>
+      </c>
+      <c r="Q364" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="R364" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="S364" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="T364" s="23">
+        <v>60.0</v>
+      </c>
+      <c r="U364" s="23" t="s">
+        <v>1164</v>
+      </c>
+      <c r="W364" s="30" t="s">
+        <v>1116</v>
+      </c>
     </row>
     <row r="365">
-      <c r="A365" s="36"/>
-      <c r="B365" s="36"/>
-      <c r="C365" s="36"/>
-      <c r="D365" s="36"/>
-      <c r="E365" s="36"/>
-      <c r="F365" s="36"/>
-      <c r="G365" s="36"/>
-      <c r="H365" s="36"/>
-      <c r="I365" s="36"/>
-      <c r="J365" s="36"/>
-      <c r="K365" s="36"/>
-      <c r="L365" s="36"/>
-      <c r="M365" s="36"/>
-      <c r="N365" s="36"/>
-      <c r="O365" s="36"/>
+      <c r="A365" s="26">
+        <v>45709.53179153935</v>
+      </c>
+      <c r="B365" s="27">
+        <v>45707.0</v>
+      </c>
+      <c r="C365" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="D365" s="17">
+        <v>30.0</v>
+      </c>
+      <c r="E365" s="17" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F365" s="17" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G365" s="27">
+        <v>45921.0</v>
+      </c>
+      <c r="H365" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="I365" s="17" t="s">
+        <v>1166</v>
+      </c>
+      <c r="J365" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K365" s="17">
+        <v>78758.0</v>
+      </c>
+      <c r="L365" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="M365" s="17" t="s">
+        <v>1065</v>
+      </c>
+      <c r="N365" s="17" t="s">
+        <v>1167</v>
+      </c>
+      <c r="O365" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="P365" s="17">
+        <v>164608.0</v>
+      </c>
+      <c r="Q365" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="R365" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="S365" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="T365" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="U365" s="17" t="s">
+        <v>1168</v>
+      </c>
+      <c r="W365" s="31" t="s">
+        <v>1148</v>
+      </c>
     </row>
     <row r="366">
-      <c r="A366" s="36"/>
-      <c r="B366" s="36"/>
-      <c r="C366" s="36"/>
-      <c r="D366" s="36"/>
-      <c r="E366" s="36"/>
-      <c r="F366" s="36"/>
-      <c r="G366" s="36"/>
-      <c r="H366" s="36"/>
-      <c r="I366" s="36"/>
-      <c r="J366" s="36"/>
-      <c r="K366" s="36"/>
-      <c r="L366" s="36"/>
-      <c r="M366" s="36"/>
-      <c r="N366" s="36"/>
-      <c r="O366" s="36"/>
+      <c r="A366" s="28">
+        <v>45709.5761872338</v>
+      </c>
+      <c r="B366" s="29">
+        <v>45709.0</v>
+      </c>
+      <c r="C366" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D366" s="23">
+        <v>15.0</v>
+      </c>
+      <c r="E366" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="F366" s="23" t="s">
+        <v>789</v>
+      </c>
+      <c r="G366" s="29">
+        <v>35793.0</v>
+      </c>
+      <c r="H366" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I366" s="23" t="s">
+        <v>1169</v>
+      </c>
+      <c r="J366" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="K366" s="23">
+        <v>78660.0</v>
+      </c>
+      <c r="L366" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M366" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N366" s="23" t="s">
+        <v>1170</v>
+      </c>
+      <c r="O366" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R366" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S366" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="T366" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="W366" s="30" t="s">
+        <v>832</v>
+      </c>
     </row>
     <row r="367">
-      <c r="A367" s="36"/>
-      <c r="B367" s="36"/>
-      <c r="C367" s="36"/>
-      <c r="D367" s="36"/>
-      <c r="E367" s="36"/>
-      <c r="F367" s="36"/>
-      <c r="G367" s="36"/>
-      <c r="H367" s="36"/>
-      <c r="I367" s="36"/>
-      <c r="J367" s="36"/>
-      <c r="K367" s="36"/>
-      <c r="L367" s="36"/>
-      <c r="M367" s="36"/>
-      <c r="N367" s="36"/>
-      <c r="O367" s="36"/>
+      <c r="A367" s="26">
+        <v>45712.37455934028</v>
+      </c>
+      <c r="B367" s="27">
+        <v>45712.0</v>
+      </c>
+      <c r="C367" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D367" s="17">
+        <v>90.0</v>
+      </c>
+      <c r="E367" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="F367" s="17" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G367" s="27">
+        <v>29098.0</v>
+      </c>
+      <c r="H367" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="I367" s="17" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J367" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="K367" s="17">
+        <v>78617.0</v>
+      </c>
+      <c r="L367" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="M367" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N367" s="17" t="s">
+        <v>1173</v>
+      </c>
+      <c r="O367" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R367" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S367" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="T367" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="W367" s="31" t="s">
+        <v>1174</v>
+      </c>
     </row>
     <row r="368">
-      <c r="A368" s="36"/>
-      <c r="B368" s="36"/>
-      <c r="C368" s="36"/>
-      <c r="D368" s="36"/>
-      <c r="E368" s="36"/>
-      <c r="F368" s="36"/>
-      <c r="G368" s="36"/>
-      <c r="H368" s="36"/>
-      <c r="I368" s="36"/>
-      <c r="J368" s="36"/>
-      <c r="K368" s="36"/>
-      <c r="L368" s="36"/>
-      <c r="M368" s="36"/>
-      <c r="N368" s="36"/>
-      <c r="O368" s="36"/>
+      <c r="A368" s="28">
+        <v>45712.44452774306</v>
+      </c>
+      <c r="B368" s="29">
+        <v>45712.0</v>
+      </c>
+      <c r="C368" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D368" s="23">
+        <v>90.0</v>
+      </c>
+      <c r="E368" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="F368" s="23" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G368" s="29">
+        <v>23921.0</v>
+      </c>
+      <c r="H368" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="I368" s="23" t="s">
+        <v>1176</v>
+      </c>
+      <c r="J368" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K368" s="23">
+        <v>78724.0</v>
+      </c>
+      <c r="L368" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M368" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="N368" s="23" t="s">
+        <v>1177</v>
+      </c>
+      <c r="O368" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R368" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S368" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="T368" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="W368" s="30" t="s">
+        <v>1178</v>
+      </c>
     </row>
     <row r="369">
-      <c r="A369" s="36"/>
-      <c r="B369" s="36"/>
-      <c r="C369" s="36"/>
-      <c r="D369" s="36"/>
-      <c r="E369" s="36"/>
-      <c r="F369" s="36"/>
-      <c r="G369" s="36"/>
-      <c r="H369" s="36"/>
-      <c r="I369" s="36"/>
-      <c r="J369" s="36"/>
-      <c r="K369" s="36"/>
-      <c r="L369" s="36"/>
-      <c r="M369" s="36"/>
-      <c r="N369" s="36"/>
-      <c r="O369" s="36"/>
+      <c r="A369" s="26">
+        <v>45712.63950576389</v>
+      </c>
+      <c r="B369" s="27">
+        <v>45712.0</v>
+      </c>
+      <c r="C369" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D369" s="17">
+        <v>45.0</v>
+      </c>
+      <c r="E369" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="F369" s="17" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G369" s="27">
+        <v>38768.0</v>
+      </c>
+      <c r="H369" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="I369" s="17" t="s">
+        <v>1180</v>
+      </c>
+      <c r="J369" s="17" t="s">
+        <v>953</v>
+      </c>
+      <c r="K369" s="17">
+        <v>78723.0</v>
+      </c>
+      <c r="L369" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M369" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N369" s="17" t="s">
+        <v>1181</v>
+      </c>
+      <c r="O369" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R369" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S369" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="T369" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="W369" s="31" t="s">
+        <v>1182</v>
+      </c>
     </row>
     <row r="370">
-      <c r="A370" s="36"/>
-      <c r="B370" s="36"/>
-      <c r="C370" s="36"/>
-      <c r="D370" s="36"/>
-      <c r="E370" s="36"/>
-      <c r="F370" s="36"/>
-      <c r="G370" s="36"/>
-      <c r="H370" s="36"/>
-      <c r="I370" s="36"/>
-      <c r="J370" s="36"/>
-      <c r="K370" s="36"/>
-      <c r="L370" s="36"/>
-      <c r="M370" s="36"/>
-      <c r="N370" s="36"/>
-      <c r="O370" s="36"/>
+      <c r="A370" s="28">
+        <v>45712.65354449074</v>
+      </c>
+      <c r="B370" s="29">
+        <v>45712.0</v>
+      </c>
+      <c r="C370" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D370" s="23">
+        <v>90.0</v>
+      </c>
+      <c r="E370" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="F370" s="23" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G370" s="29">
+        <v>37398.0</v>
+      </c>
+      <c r="H370" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I370" s="23" t="s">
+        <v>1184</v>
+      </c>
+      <c r="J370" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K370" s="23">
+        <v>78750.0</v>
+      </c>
+      <c r="L370" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M370" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N370" s="23" t="s">
+        <v>851</v>
+      </c>
+      <c r="O370" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R370" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S370" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="T370" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="W370" s="30" t="s">
+        <v>1185</v>
+      </c>
     </row>
     <row r="371">
-      <c r="A371" s="36"/>
-      <c r="B371" s="36"/>
-      <c r="C371" s="36"/>
-      <c r="D371" s="36"/>
-      <c r="E371" s="36"/>
-      <c r="F371" s="36"/>
-      <c r="G371" s="36"/>
-      <c r="H371" s="36"/>
-      <c r="I371" s="36"/>
-      <c r="J371" s="36"/>
-      <c r="K371" s="36"/>
-      <c r="L371" s="36"/>
-      <c r="M371" s="36"/>
-      <c r="N371" s="36"/>
-      <c r="O371" s="36"/>
+      <c r="A371" s="26">
+        <v>45712.653586562505</v>
+      </c>
+      <c r="B371" s="27">
+        <v>45712.0</v>
+      </c>
+      <c r="C371" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="D371" s="17">
+        <v>120.0</v>
+      </c>
+      <c r="E371" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="G371" s="27">
+        <v>29871.0</v>
+      </c>
+      <c r="H371" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I371" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="J371" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K371" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="L371" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M371" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="N371" s="17" t="s">
+        <v>1186</v>
+      </c>
+      <c r="O371" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="R371" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S371" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="T371" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="U371" s="17" t="s">
+        <v>1187</v>
+      </c>
+      <c r="W371" s="31" t="s">
+        <v>1188</v>
+      </c>
     </row>
     <row r="372">
-      <c r="A372" s="36"/>
-      <c r="B372" s="36"/>
-      <c r="C372" s="36"/>
-      <c r="D372" s="36"/>
-      <c r="E372" s="36"/>
-      <c r="F372" s="36"/>
-      <c r="G372" s="36"/>
-      <c r="H372" s="36"/>
-      <c r="I372" s="36"/>
-      <c r="J372" s="36"/>
-      <c r="K372" s="36"/>
-      <c r="L372" s="36"/>
-      <c r="M372" s="36"/>
-      <c r="N372" s="36"/>
-      <c r="O372" s="36"/>
+      <c r="A372" s="28">
+        <v>45712.657377407406</v>
+      </c>
+      <c r="B372" s="29">
+        <v>45712.0</v>
+      </c>
+      <c r="C372" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="D372" s="23">
+        <v>30.0</v>
+      </c>
+      <c r="E372" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="F372" s="23" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G372" s="29">
+        <v>29871.0</v>
+      </c>
+      <c r="H372" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I372" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="J372" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K372" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="L372" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M372" s="23" t="s">
+        <v>1065</v>
+      </c>
+      <c r="N372" s="23" t="s">
+        <v>1190</v>
+      </c>
+      <c r="O372" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="R372" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S372" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="T372" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="U372" s="23" t="s">
+        <v>1191</v>
+      </c>
+      <c r="W372" s="30" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="373">
-      <c r="A373" s="36"/>
-      <c r="B373" s="36"/>
-      <c r="C373" s="36"/>
-      <c r="D373" s="36"/>
-      <c r="E373" s="36"/>
-      <c r="F373" s="36"/>
-      <c r="G373" s="36"/>
-      <c r="H373" s="36"/>
-      <c r="I373" s="36"/>
-      <c r="J373" s="36"/>
-      <c r="K373" s="36"/>
-      <c r="L373" s="36"/>
-      <c r="M373" s="36"/>
-      <c r="N373" s="36"/>
-      <c r="O373" s="36"/>
+      <c r="A373" s="26">
+        <v>45713.351753043986</v>
+      </c>
+      <c r="B373" s="27">
+        <v>45712.0</v>
+      </c>
+      <c r="C373" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D373" s="17">
+        <v>90.0</v>
+      </c>
+      <c r="E373" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="F373" s="17" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G373" s="27">
+        <v>31408.0</v>
+      </c>
+      <c r="H373" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I373" s="17" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J373" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="K373" s="17">
+        <v>78731.0</v>
+      </c>
+      <c r="L373" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="M373" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N373" s="17" t="s">
+        <v>740</v>
+      </c>
+      <c r="O373" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="R373" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S373" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="T373" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="W373" s="31" t="s">
+        <v>1194</v>
+      </c>
     </row>
     <row r="374">
-      <c r="A374" s="36"/>
-      <c r="B374" s="36"/>
-      <c r="C374" s="36"/>
-      <c r="D374" s="36"/>
-      <c r="E374" s="36"/>
-      <c r="F374" s="36"/>
-      <c r="G374" s="36"/>
-      <c r="H374" s="36"/>
-      <c r="I374" s="36"/>
-      <c r="J374" s="36"/>
-      <c r="K374" s="36"/>
-      <c r="L374" s="36"/>
-      <c r="M374" s="36"/>
-      <c r="N374" s="36"/>
-      <c r="O374" s="36"/>
+      <c r="A374" s="28">
+        <v>45713.362659039354</v>
+      </c>
+      <c r="B374" s="29">
+        <v>45713.0</v>
+      </c>
+      <c r="C374" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D374" s="23">
+        <v>90.0</v>
+      </c>
+      <c r="E374" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="F374" s="23" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G374" s="29">
+        <v>32396.0</v>
+      </c>
+      <c r="H374" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I374" s="23" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J374" s="23" t="s">
+        <v>1157</v>
+      </c>
+      <c r="K374" s="23">
+        <v>78725.0</v>
+      </c>
+      <c r="L374" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M374" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N374" s="23" t="s">
+        <v>740</v>
+      </c>
+      <c r="O374" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R374" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S374" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="T374" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="W374" s="30" t="s">
+        <v>1197</v>
+      </c>
     </row>
     <row r="375">
-      <c r="A375" s="36"/>
-      <c r="B375" s="36"/>
-      <c r="C375" s="36"/>
-      <c r="D375" s="36"/>
-      <c r="E375" s="36"/>
-      <c r="F375" s="36"/>
-      <c r="G375" s="36"/>
-      <c r="H375" s="36"/>
-      <c r="I375" s="36"/>
-      <c r="J375" s="36"/>
-      <c r="K375" s="36"/>
-      <c r="L375" s="36"/>
-      <c r="M375" s="36"/>
-      <c r="N375" s="36"/>
-      <c r="O375" s="36"/>
+      <c r="A375" s="26">
+        <v>45713.368968587965</v>
+      </c>
+      <c r="B375" s="27">
+        <v>45713.0</v>
+      </c>
+      <c r="C375" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D375" s="17">
+        <v>90.0</v>
+      </c>
+      <c r="E375" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="F375" s="17" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G375" s="27">
+        <v>36311.0</v>
+      </c>
+      <c r="H375" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="I375" s="17" t="s">
+        <v>1199</v>
+      </c>
+      <c r="J375" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="K375" s="17">
+        <v>78752.0</v>
+      </c>
+      <c r="L375" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="M375" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N375" s="17" t="s">
+        <v>1200</v>
+      </c>
+      <c r="O375" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="R375" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S375" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="T375" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="W375" s="31" t="s">
+        <v>1201</v>
+      </c>
     </row>
     <row r="376">
-      <c r="A376" s="36"/>
-      <c r="B376" s="36"/>
-      <c r="C376" s="36"/>
-      <c r="D376" s="36"/>
-      <c r="E376" s="36"/>
-      <c r="F376" s="36"/>
-      <c r="G376" s="36"/>
-      <c r="H376" s="36"/>
-      <c r="I376" s="36"/>
-      <c r="J376" s="36"/>
-      <c r="K376" s="36"/>
-      <c r="L376" s="36"/>
-      <c r="M376" s="36"/>
-      <c r="N376" s="36"/>
-      <c r="O376" s="36"/>
+      <c r="A376" s="28">
+        <v>45713.398404884254</v>
+      </c>
+      <c r="B376" s="29">
+        <v>45694.0</v>
+      </c>
+      <c r="C376" s="23" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D376" s="23">
+        <v>45.0</v>
+      </c>
+      <c r="E376" s="23" t="s">
+        <v>1203</v>
+      </c>
+      <c r="H376" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="M376" s="23" t="s">
+        <v>1065</v>
+      </c>
+      <c r="O376" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="P376" s="23">
+        <v>91288.0</v>
+      </c>
+      <c r="R376" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S376" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="T376" s="23">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="377">
-      <c r="A377" s="36"/>
-      <c r="B377" s="36"/>
-      <c r="C377" s="36"/>
-      <c r="D377" s="36"/>
-      <c r="E377" s="36"/>
-      <c r="F377" s="36"/>
-      <c r="G377" s="36"/>
-      <c r="H377" s="36"/>
-      <c r="I377" s="36"/>
-      <c r="J377" s="36"/>
-      <c r="K377" s="36"/>
-      <c r="L377" s="36"/>
-      <c r="M377" s="36"/>
-      <c r="N377" s="36"/>
-      <c r="O377" s="36"/>
+      <c r="A377" s="26">
+        <v>45713.39983934027</v>
+      </c>
+      <c r="B377" s="27">
+        <v>45694.0</v>
+      </c>
+      <c r="C377" s="17" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D377" s="17">
+        <v>30.0</v>
+      </c>
+      <c r="E377" s="17" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H377" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="M377" s="17" t="s">
+        <v>1065</v>
+      </c>
+      <c r="O377" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="P377" s="17">
+        <v>235107.0</v>
+      </c>
+      <c r="R377" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S377" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="T377" s="17">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="378">
-      <c r="A378" s="36"/>
-      <c r="B378" s="36"/>
-      <c r="C378" s="36"/>
-      <c r="D378" s="36"/>
-      <c r="E378" s="36"/>
-      <c r="F378" s="36"/>
-      <c r="G378" s="36"/>
-      <c r="H378" s="36"/>
-      <c r="I378" s="36"/>
-      <c r="J378" s="36"/>
-      <c r="K378" s="36"/>
-      <c r="L378" s="36"/>
-      <c r="M378" s="36"/>
-      <c r="N378" s="36"/>
-      <c r="O378" s="36"/>
+      <c r="A378" s="28">
+        <v>45713.43663489583</v>
+      </c>
+      <c r="B378" s="29">
+        <v>45713.0</v>
+      </c>
+      <c r="C378" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D378" s="23">
+        <v>90.0</v>
+      </c>
+      <c r="E378" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="F378" s="23" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G378" s="29">
+        <v>26459.0</v>
+      </c>
+      <c r="H378" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I378" s="23" t="s">
+        <v>1206</v>
+      </c>
+      <c r="J378" s="23" t="s">
+        <v>1207</v>
+      </c>
+      <c r="K378" s="23">
+        <v>78661.0</v>
+      </c>
+      <c r="M378" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N378" s="23" t="s">
+        <v>740</v>
+      </c>
+      <c r="O378" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R378" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S378" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="T378" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="W378" s="30" t="s">
+        <v>1208</v>
+      </c>
     </row>
     <row r="379">
-      <c r="A379" s="36"/>
-      <c r="B379" s="36"/>
-      <c r="C379" s="36"/>
-      <c r="D379" s="36"/>
-      <c r="E379" s="36"/>
-      <c r="F379" s="36"/>
-      <c r="G379" s="36"/>
-      <c r="H379" s="36"/>
-      <c r="I379" s="36"/>
-      <c r="J379" s="36"/>
-      <c r="K379" s="36"/>
-      <c r="L379" s="36"/>
-      <c r="M379" s="36"/>
-      <c r="N379" s="36"/>
-      <c r="O379" s="36"/>
+      <c r="A379" s="26">
+        <v>45713.565390069445</v>
+      </c>
+      <c r="B379" s="27">
+        <v>45713.0</v>
+      </c>
+      <c r="C379" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D379" s="17">
+        <v>90.0</v>
+      </c>
+      <c r="E379" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="F379" s="17" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G379" s="27">
+        <v>25635.0</v>
+      </c>
+      <c r="H379" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="I379" s="17" t="s">
+        <v>1210</v>
+      </c>
+      <c r="J379" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="K379" s="17">
+        <v>78721.0</v>
+      </c>
+      <c r="L379" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M379" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N379" s="17" t="s">
+        <v>1211</v>
+      </c>
+      <c r="O379" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R379" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S379" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="T379" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="W379" s="31" t="s">
+        <v>1212</v>
+      </c>
     </row>
     <row r="380">
-      <c r="A380" s="36"/>
-      <c r="B380" s="36"/>
-      <c r="C380" s="36"/>
-      <c r="D380" s="36"/>
-      <c r="E380" s="36"/>
-      <c r="F380" s="36"/>
-      <c r="G380" s="36"/>
-      <c r="H380" s="36"/>
-      <c r="I380" s="36"/>
-      <c r="J380" s="36"/>
-      <c r="K380" s="36"/>
-      <c r="L380" s="36"/>
-      <c r="M380" s="36"/>
-      <c r="N380" s="36"/>
-      <c r="O380" s="36"/>
+      <c r="A380" s="28">
+        <v>45713.600068078704</v>
+      </c>
+      <c r="B380" s="29">
+        <v>45713.0</v>
+      </c>
+      <c r="C380" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D380" s="23">
+        <v>90.0</v>
+      </c>
+      <c r="E380" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="F380" s="23" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G380" s="29">
+        <v>28313.0</v>
+      </c>
+      <c r="H380" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="I380" s="23" t="s">
+        <v>1144</v>
+      </c>
+      <c r="K380" s="23">
+        <v>78617.0</v>
+      </c>
+      <c r="L380" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M380" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N380" s="23" t="s">
+        <v>1214</v>
+      </c>
+      <c r="O380" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R380" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S380" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="T380" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="W380" s="30" t="s">
+        <v>1215</v>
+      </c>
     </row>
     <row r="381">
-      <c r="A381" s="36"/>
-      <c r="B381" s="36"/>
-      <c r="C381" s="36"/>
-      <c r="D381" s="36"/>
-      <c r="E381" s="36"/>
-      <c r="F381" s="36"/>
-      <c r="G381" s="36"/>
-      <c r="H381" s="36"/>
-      <c r="I381" s="36"/>
-      <c r="J381" s="36"/>
-      <c r="K381" s="36"/>
-      <c r="L381" s="36"/>
-      <c r="M381" s="36"/>
-      <c r="N381" s="36"/>
-      <c r="O381" s="36"/>
+      <c r="A381" s="26">
+        <v>45714.562031388894</v>
+      </c>
+      <c r="B381" s="27">
+        <v>45714.0</v>
+      </c>
+      <c r="C381" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D381" s="17">
+        <v>90.0</v>
+      </c>
+      <c r="E381" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="F381" s="17" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G381" s="27">
+        <v>30408.0</v>
+      </c>
+      <c r="H381" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="I381" s="17" t="s">
+        <v>1217</v>
+      </c>
+      <c r="J381" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K381" s="17">
+        <v>78747.0</v>
+      </c>
+      <c r="L381" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M381" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N381" s="17" t="s">
+        <v>1218</v>
+      </c>
+      <c r="O381" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R381" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S381" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="T381" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="W381" s="31" t="s">
+        <v>1219</v>
+      </c>
     </row>
     <row r="382">
-      <c r="A382" s="36"/>
-      <c r="B382" s="36"/>
-      <c r="C382" s="36"/>
-      <c r="D382" s="36"/>
-      <c r="E382" s="36"/>
-      <c r="F382" s="36"/>
-      <c r="G382" s="36"/>
-      <c r="H382" s="36"/>
-      <c r="I382" s="36"/>
-      <c r="J382" s="36"/>
-      <c r="K382" s="36"/>
-      <c r="L382" s="36"/>
-      <c r="M382" s="36"/>
-      <c r="N382" s="36"/>
-      <c r="O382" s="36"/>
+      <c r="A382" s="28">
+        <v>45714.68306728009</v>
+      </c>
+      <c r="B382" s="29">
+        <v>45714.0</v>
+      </c>
+      <c r="C382" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D382" s="23">
+        <v>90.0</v>
+      </c>
+      <c r="E382" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="F382" s="23" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G382" s="29">
+        <v>23011.0</v>
+      </c>
+      <c r="H382" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I382" s="23" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J382" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="K382" s="23">
+        <v>78660.0</v>
+      </c>
+      <c r="L382" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M382" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N382" s="23" t="s">
+        <v>851</v>
+      </c>
+      <c r="O382" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R382" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S382" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="T382" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="W382" s="30" t="s">
+        <v>1222</v>
+      </c>
     </row>
     <row r="383">
-      <c r="A383" s="36"/>
-      <c r="B383" s="36"/>
-      <c r="C383" s="36"/>
-      <c r="D383" s="36"/>
-      <c r="E383" s="36"/>
-      <c r="F383" s="36"/>
-      <c r="G383" s="36"/>
-      <c r="H383" s="36"/>
-      <c r="I383" s="36"/>
-      <c r="J383" s="36"/>
-      <c r="K383" s="36"/>
-      <c r="L383" s="36"/>
-      <c r="M383" s="36"/>
-      <c r="N383" s="36"/>
-      <c r="O383" s="36"/>
+      <c r="A383" s="26">
+        <v>45714.69819101851</v>
+      </c>
+      <c r="B383" s="27">
+        <v>45714.0</v>
+      </c>
+      <c r="C383" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D383" s="17">
+        <v>90.0</v>
+      </c>
+      <c r="E383" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="F383" s="17" t="s">
+        <v>845</v>
+      </c>
+      <c r="G383" s="27">
+        <v>29033.0</v>
+      </c>
+      <c r="H383" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="I383" s="17" t="s">
+        <v>846</v>
+      </c>
+      <c r="J383" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="K383" s="17">
+        <v>78723.0</v>
+      </c>
+      <c r="L383" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M383" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N383" s="17" t="s">
+        <v>1214</v>
+      </c>
+      <c r="O383" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="R383" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S383" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="T383" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="W383" s="31" t="s">
+        <v>848</v>
+      </c>
     </row>
     <row r="384">
-      <c r="A384" s="36"/>
-      <c r="B384" s="36"/>
-      <c r="C384" s="36"/>
-      <c r="D384" s="36"/>
-      <c r="E384" s="36"/>
-      <c r="F384" s="36"/>
-      <c r="G384" s="36"/>
-      <c r="H384" s="36"/>
-      <c r="I384" s="36"/>
-      <c r="J384" s="36"/>
-      <c r="K384" s="36"/>
-      <c r="L384" s="36"/>
-      <c r="M384" s="36"/>
-      <c r="N384" s="36"/>
-      <c r="O384" s="36"/>
+      <c r="A384" s="28">
+        <v>45714.71517361111</v>
+      </c>
+      <c r="B384" s="29">
+        <v>45714.0</v>
+      </c>
+      <c r="C384" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D384" s="23">
+        <v>30.0</v>
+      </c>
+      <c r="E384" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="F384" s="23" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G384" s="29">
+        <v>31141.0</v>
+      </c>
+      <c r="H384" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="I384" s="23" t="s">
+        <v>1224</v>
+      </c>
+      <c r="J384" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K384" s="23">
+        <v>78653.0</v>
+      </c>
+      <c r="L384" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M384" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N384" s="23" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O384" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R384" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S384" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="T384" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="W384" s="30" t="s">
+        <v>1226</v>
+      </c>
     </row>
     <row r="385">
-      <c r="A385" s="36"/>
-      <c r="B385" s="36"/>
-      <c r="C385" s="36"/>
-      <c r="D385" s="36"/>
-      <c r="E385" s="36"/>
-      <c r="F385" s="36"/>
-      <c r="G385" s="36"/>
-      <c r="H385" s="36"/>
-      <c r="I385" s="36"/>
-      <c r="J385" s="36"/>
-      <c r="K385" s="36"/>
-      <c r="L385" s="36"/>
-      <c r="M385" s="36"/>
-      <c r="N385" s="36"/>
-      <c r="O385" s="36"/>
+      <c r="A385" s="26">
+        <v>45715.38993063658</v>
+      </c>
+      <c r="B385" s="27">
+        <v>45715.0</v>
+      </c>
+      <c r="C385" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D385" s="17">
+        <v>90.0</v>
+      </c>
+      <c r="E385" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="F385" s="17" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G385" s="27">
+        <v>31029.0</v>
+      </c>
+      <c r="H385" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="I385" s="17" t="s">
+        <v>1228</v>
+      </c>
+      <c r="J385" s="17" t="s">
+        <v>953</v>
+      </c>
+      <c r="K385" s="17">
+        <v>78724.0</v>
+      </c>
+      <c r="L385" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="M385" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N385" s="17" t="s">
+        <v>1229</v>
+      </c>
+      <c r="O385" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="R385" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S385" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="T385" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="W385" s="31" t="s">
+        <v>1230</v>
+      </c>
     </row>
     <row r="386">
-      <c r="A386" s="36"/>
-      <c r="B386" s="36"/>
-      <c r="C386" s="36"/>
-      <c r="D386" s="36"/>
-      <c r="E386" s="36"/>
-      <c r="F386" s="36"/>
-      <c r="G386" s="36"/>
-      <c r="H386" s="36"/>
-      <c r="I386" s="36"/>
-      <c r="J386" s="36"/>
-      <c r="K386" s="36"/>
-      <c r="L386" s="36"/>
-      <c r="M386" s="36"/>
-      <c r="N386" s="36"/>
-      <c r="O386" s="36"/>
+      <c r="A386" s="28">
+        <v>45715.3936422338</v>
+      </c>
+      <c r="B386" s="29">
+        <v>45715.0</v>
+      </c>
+      <c r="C386" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D386" s="23">
+        <v>90.0</v>
+      </c>
+      <c r="E386" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="F386" s="23" t="s">
+        <v>1231</v>
+      </c>
+      <c r="G386" s="29">
+        <v>35986.0</v>
+      </c>
+      <c r="H386" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="I386" s="23" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J386" s="23" t="s">
+        <v>1233</v>
+      </c>
+      <c r="K386" s="23">
+        <v>78653.0</v>
+      </c>
+      <c r="L386" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M386" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N386" s="23" t="s">
+        <v>1234</v>
+      </c>
+      <c r="O386" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="R386" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S386" s="23" t="s">
+        <v>880</v>
+      </c>
+      <c r="T386" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="W386" s="30" t="s">
+        <v>799</v>
+      </c>
     </row>
     <row r="387">
-      <c r="A387" s="36"/>
-      <c r="B387" s="36"/>
-      <c r="C387" s="36"/>
-      <c r="D387" s="36"/>
-      <c r="E387" s="36"/>
-      <c r="F387" s="36"/>
-      <c r="G387" s="36"/>
-      <c r="H387" s="36"/>
-      <c r="I387" s="36"/>
-      <c r="J387" s="36"/>
-      <c r="K387" s="36"/>
-      <c r="L387" s="36"/>
-      <c r="M387" s="36"/>
-      <c r="N387" s="36"/>
-      <c r="O387" s="36"/>
+      <c r="A387" s="26">
+        <v>45715.399453564816</v>
+      </c>
+      <c r="B387" s="27">
+        <v>45715.0</v>
+      </c>
+      <c r="C387" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D387" s="17">
+        <v>90.0</v>
+      </c>
+      <c r="E387" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="F387" s="17" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G387" s="27">
+        <v>26843.0</v>
+      </c>
+      <c r="H387" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="I387" s="17" t="s">
+        <v>1236</v>
+      </c>
+      <c r="J387" s="17" t="s">
+        <v>1237</v>
+      </c>
+      <c r="K387" s="17">
+        <v>78617.0</v>
+      </c>
+      <c r="L387" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="M387" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N387" s="17" t="s">
+        <v>1238</v>
+      </c>
+      <c r="O387" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R387" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S387" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="T387" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="W387" s="31" t="s">
+        <v>1239</v>
+      </c>
     </row>
     <row r="388">
-      <c r="A388" s="36"/>
-      <c r="B388" s="36"/>
-      <c r="C388" s="36"/>
-      <c r="D388" s="36"/>
-      <c r="E388" s="36"/>
-      <c r="F388" s="36"/>
-      <c r="G388" s="36"/>
-      <c r="H388" s="36"/>
-      <c r="I388" s="36"/>
-      <c r="J388" s="36"/>
-      <c r="K388" s="36"/>
-      <c r="L388" s="36"/>
-      <c r="M388" s="36"/>
-      <c r="N388" s="36"/>
-      <c r="O388" s="36"/>
+      <c r="A388" s="28">
+        <v>45715.563809467596</v>
+      </c>
+      <c r="B388" s="29">
+        <v>45715.0</v>
+      </c>
+      <c r="C388" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D388" s="23">
+        <v>60.0</v>
+      </c>
+      <c r="E388" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="F388" s="23" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G388" s="29">
+        <v>31236.0</v>
+      </c>
+      <c r="H388" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I388" s="23" t="s">
+        <v>1241</v>
+      </c>
+      <c r="J388" s="23" t="s">
+        <v>953</v>
+      </c>
+      <c r="K388" s="23">
+        <v>78723.0</v>
+      </c>
+      <c r="L388" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M388" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N388" s="23" t="s">
+        <v>1242</v>
+      </c>
+      <c r="O388" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R388" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S388" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="T388" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="W388" s="30" t="s">
+        <v>1243</v>
+      </c>
     </row>
     <row r="389">
-      <c r="A389" s="36"/>
-      <c r="B389" s="36"/>
-      <c r="C389" s="36"/>
-      <c r="D389" s="36"/>
-      <c r="E389" s="36"/>
-      <c r="F389" s="36"/>
-      <c r="G389" s="36"/>
-      <c r="H389" s="36"/>
-      <c r="I389" s="36"/>
-      <c r="J389" s="36"/>
-      <c r="K389" s="36"/>
-      <c r="L389" s="36"/>
-      <c r="M389" s="36"/>
-      <c r="N389" s="36"/>
-      <c r="O389" s="36"/>
+      <c r="A389" s="26">
+        <v>45715.66475269676</v>
+      </c>
+      <c r="B389" s="27">
+        <v>45715.0</v>
+      </c>
+      <c r="C389" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D389" s="17">
+        <v>15.0</v>
+      </c>
+      <c r="E389" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="F389" s="17" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G389" s="27">
+        <v>25780.0</v>
+      </c>
+      <c r="H389" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="I389" s="17" t="s">
+        <v>1245</v>
+      </c>
+      <c r="J389" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="M389" s="17" t="s">
+        <v>1062</v>
+      </c>
+      <c r="N389" s="17" t="s">
+        <v>1246</v>
+      </c>
+      <c r="O389" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="R389" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S389" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="T389" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="W389" s="31" t="s">
+        <v>1247</v>
+      </c>
     </row>
     <row r="390">
-      <c r="A390" s="36"/>
-      <c r="B390" s="36"/>
-      <c r="C390" s="36"/>
-      <c r="D390" s="36"/>
-      <c r="E390" s="36"/>
-      <c r="F390" s="36"/>
-      <c r="G390" s="36"/>
-      <c r="H390" s="36"/>
-      <c r="I390" s="36"/>
-      <c r="J390" s="36"/>
-      <c r="K390" s="36"/>
-      <c r="L390" s="36"/>
-      <c r="M390" s="36"/>
-      <c r="N390" s="36"/>
-      <c r="O390" s="36"/>
+      <c r="A390" s="28">
+        <v>45716.376439155094</v>
+      </c>
+      <c r="B390" s="29">
+        <v>45716.0</v>
+      </c>
+      <c r="C390" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D390" s="23">
+        <v>60.0</v>
+      </c>
+      <c r="E390" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="F390" s="23" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G390" s="29">
+        <v>26337.0</v>
+      </c>
+      <c r="H390" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I390" s="23" t="s">
+        <v>1140</v>
+      </c>
+      <c r="J390" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="K390" s="23">
+        <v>78724.0</v>
+      </c>
+      <c r="L390" s="23" t="s">
+        <v>1249</v>
+      </c>
+      <c r="M390" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="N390" s="23" t="s">
+        <v>1250</v>
+      </c>
+      <c r="O390" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="R390" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S390" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="T390" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="W390" s="30" t="s">
+        <v>1251</v>
+      </c>
     </row>
     <row r="391">
-      <c r="A391" s="36"/>
-      <c r="B391" s="36"/>
-      <c r="C391" s="36"/>
-      <c r="D391" s="36"/>
-      <c r="E391" s="36"/>
-      <c r="F391" s="36"/>
-      <c r="G391" s="36"/>
-      <c r="H391" s="36"/>
-      <c r="I391" s="36"/>
-      <c r="J391" s="36"/>
-      <c r="K391" s="36"/>
-      <c r="L391" s="36"/>
-      <c r="M391" s="36"/>
-      <c r="N391" s="36"/>
-      <c r="O391" s="36"/>
+      <c r="A391" s="26">
+        <v>45716.387772939815</v>
+      </c>
+      <c r="B391" s="27">
+        <v>45716.0</v>
+      </c>
+      <c r="C391" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D391" s="17">
+        <v>30.0</v>
+      </c>
+      <c r="E391" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="F391" s="17" t="s">
+        <v>963</v>
+      </c>
+      <c r="G391" s="27">
+        <v>26337.0</v>
+      </c>
+      <c r="H391" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I391" s="17" t="s">
+        <v>1252</v>
+      </c>
+      <c r="J391" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K391" s="17">
+        <v>78724.0</v>
+      </c>
+      <c r="L391" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M391" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N391" s="17" t="s">
+        <v>1055</v>
+      </c>
+      <c r="O391" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R391" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S391" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="T391" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="W391" s="31" t="s">
+        <v>1251</v>
+      </c>
     </row>
     <row r="392">
-      <c r="A392" s="36"/>
-      <c r="B392" s="36"/>
-      <c r="C392" s="36"/>
-      <c r="D392" s="36"/>
-      <c r="E392" s="36"/>
-      <c r="F392" s="36"/>
-      <c r="G392" s="36"/>
-      <c r="H392" s="36"/>
-      <c r="I392" s="36"/>
-      <c r="J392" s="36"/>
-      <c r="K392" s="36"/>
-      <c r="L392" s="36"/>
-      <c r="M392" s="36"/>
-      <c r="N392" s="36"/>
-      <c r="O392" s="36"/>
+      <c r="A392" s="28">
+        <v>45716.40366858796</v>
+      </c>
+      <c r="B392" s="29">
+        <v>45700.0</v>
+      </c>
+      <c r="C392" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D392" s="23">
+        <v>30.0</v>
+      </c>
+      <c r="E392" s="23" t="s">
+        <v>992</v>
+      </c>
+      <c r="F392" s="23" t="s">
+        <v>993</v>
+      </c>
+      <c r="G392" s="29">
+        <v>25359.0</v>
+      </c>
+      <c r="H392" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="I392" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="J392" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K392" s="23">
+        <v>78704.0</v>
+      </c>
+      <c r="L392" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M392" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N392" s="23" t="s">
+        <v>1253</v>
+      </c>
+      <c r="O392" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R392" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S392" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="T392" s="23">
+        <v>30.0</v>
+      </c>
+      <c r="W392" s="30" t="s">
+        <v>1254</v>
+      </c>
     </row>
     <row r="393">
-      <c r="A393" s="36"/>
-      <c r="B393" s="36"/>
-      <c r="C393" s="36"/>
-      <c r="D393" s="36"/>
-      <c r="E393" s="36"/>
-      <c r="F393" s="36"/>
-      <c r="G393" s="36"/>
-      <c r="H393" s="36"/>
-      <c r="I393" s="36"/>
-      <c r="J393" s="36"/>
-      <c r="K393" s="36"/>
-      <c r="L393" s="36"/>
-      <c r="M393" s="36"/>
-      <c r="N393" s="36"/>
-      <c r="O393" s="36"/>
+      <c r="A393" s="26">
+        <v>45716.40832239583</v>
+      </c>
+      <c r="B393" s="27">
+        <v>45700.0</v>
+      </c>
+      <c r="C393" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D393" s="17">
+        <v>45.0</v>
+      </c>
+      <c r="E393" s="17" t="s">
+        <v>992</v>
+      </c>
+      <c r="F393" s="17" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H393" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="I393" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="J393" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="K393" s="17">
+        <v>78704.0</v>
+      </c>
+      <c r="L393" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M393" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="N393" s="17" t="s">
+        <v>1255</v>
+      </c>
+      <c r="O393" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R393" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S393" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="T393" s="17">
+        <v>30.0</v>
+      </c>
+      <c r="W393" s="31" t="s">
+        <v>1005</v>
+      </c>
     </row>
     <row r="394">
-      <c r="A394" s="36"/>
-      <c r="B394" s="36"/>
-      <c r="C394" s="36"/>
-      <c r="D394" s="36"/>
-      <c r="E394" s="36"/>
-      <c r="F394" s="36"/>
-      <c r="G394" s="36"/>
-      <c r="H394" s="36"/>
-      <c r="I394" s="36"/>
-      <c r="J394" s="36"/>
-      <c r="K394" s="36"/>
-      <c r="L394" s="36"/>
-      <c r="M394" s="36"/>
-      <c r="N394" s="36"/>
-      <c r="O394" s="36"/>
+      <c r="A394" s="28">
+        <v>45716.43299570602</v>
+      </c>
+      <c r="B394" s="29">
+        <v>45700.0</v>
+      </c>
+      <c r="C394" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D394" s="23">
+        <v>30.0</v>
+      </c>
+      <c r="E394" s="23" t="s">
+        <v>992</v>
+      </c>
+      <c r="F394" s="23" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G394" s="29">
+        <v>24115.0</v>
+      </c>
+      <c r="H394" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="I394" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="M394" s="23" t="s">
+        <v>1062</v>
+      </c>
+      <c r="N394" s="23" t="s">
+        <v>1257</v>
+      </c>
+      <c r="O394" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R394" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S394" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="T394" s="23">
+        <v>30.0</v>
+      </c>
+      <c r="W394" s="30" t="s">
+        <v>1258</v>
+      </c>
     </row>
     <row r="395">
-      <c r="A395" s="36"/>
-      <c r="B395" s="36"/>
-      <c r="C395" s="36"/>
-      <c r="D395" s="36"/>
-      <c r="E395" s="36"/>
-      <c r="F395" s="36"/>
-      <c r="G395" s="36"/>
-      <c r="H395" s="36"/>
-      <c r="I395" s="36"/>
-      <c r="J395" s="36"/>
-      <c r="K395" s="36"/>
-      <c r="L395" s="36"/>
-      <c r="M395" s="36"/>
-      <c r="N395" s="36"/>
-      <c r="O395" s="36"/>
+      <c r="A395" s="26">
+        <v>45716.44419010417</v>
+      </c>
+      <c r="B395" s="27">
+        <v>45690.0</v>
+      </c>
+      <c r="C395" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D395" s="17">
+        <v>90.0</v>
+      </c>
+      <c r="E395" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="F395" s="17" t="s">
+        <v>1259</v>
+      </c>
+      <c r="G395" s="27">
+        <v>22581.0</v>
+      </c>
+      <c r="H395" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="I395" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="J395" s="17" t="s">
+        <v>953</v>
+      </c>
+      <c r="M395" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="N395" s="17" t="s">
+        <v>1260</v>
+      </c>
+      <c r="O395" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="R395" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S395" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="T395" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="W395" s="31" t="s">
+        <v>1261</v>
+      </c>
     </row>
     <row r="396">
-      <c r="A396" s="36"/>
-      <c r="B396" s="36"/>
-      <c r="C396" s="36"/>
-      <c r="D396" s="36"/>
-      <c r="E396" s="36"/>
-      <c r="F396" s="36"/>
-      <c r="G396" s="36"/>
-      <c r="H396" s="36"/>
-      <c r="I396" s="36"/>
-      <c r="J396" s="36"/>
-      <c r="K396" s="36"/>
-      <c r="L396" s="36"/>
-      <c r="M396" s="36"/>
-      <c r="N396" s="36"/>
-      <c r="O396" s="36"/>
+      <c r="A396" s="28">
+        <v>45716.48949666666</v>
+      </c>
+      <c r="B396" s="29">
+        <v>45716.0</v>
+      </c>
+      <c r="C396" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D396" s="23">
+        <v>30.0</v>
+      </c>
+      <c r="E396" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="F396" s="23" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G396" s="29">
+        <v>31882.0</v>
+      </c>
+      <c r="H396" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I396" s="23" t="s">
+        <v>1263</v>
+      </c>
+      <c r="J396" s="23" t="s">
+        <v>953</v>
+      </c>
+      <c r="K396" s="23">
+        <v>78748.0</v>
+      </c>
+      <c r="L396" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M396" s="23" t="s">
+        <v>1062</v>
+      </c>
+      <c r="N396" s="23" t="s">
+        <v>1264</v>
+      </c>
+      <c r="O396" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R396" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S396" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="T396" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="W396" s="30" t="s">
+        <v>1265</v>
+      </c>
     </row>
     <row r="397">
-      <c r="A397" s="36"/>
-      <c r="B397" s="36"/>
-      <c r="C397" s="36"/>
-      <c r="D397" s="36"/>
-      <c r="E397" s="36"/>
-      <c r="F397" s="36"/>
-      <c r="G397" s="36"/>
-      <c r="H397" s="36"/>
-      <c r="I397" s="36"/>
-      <c r="J397" s="36"/>
-      <c r="K397" s="36"/>
-      <c r="L397" s="36"/>
-      <c r="M397" s="36"/>
-      <c r="N397" s="36"/>
-      <c r="O397" s="36"/>
+      <c r="A397" s="26">
+        <v>45716.51259449074</v>
+      </c>
+      <c r="B397" s="27">
+        <v>45716.0</v>
+      </c>
+      <c r="C397" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D397" s="17">
+        <v>45.0</v>
+      </c>
+      <c r="E397" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="F397" s="17" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G397" s="27">
+        <v>31882.0</v>
+      </c>
+      <c r="H397" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I397" s="17" t="s">
+        <v>1263</v>
+      </c>
+      <c r="J397" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K397" s="17">
+        <v>78748.0</v>
+      </c>
+      <c r="L397" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M397" s="17" t="s">
+        <v>1062</v>
+      </c>
+      <c r="N397" s="17" t="s">
+        <v>1266</v>
+      </c>
+      <c r="O397" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R397" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S397" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="T397" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="W397" s="31" t="s">
+        <v>1267</v>
+      </c>
     </row>
     <row r="398">
-      <c r="A398" s="36"/>
-      <c r="B398" s="36"/>
-      <c r="C398" s="36"/>
-      <c r="D398" s="36"/>
-      <c r="E398" s="36"/>
-      <c r="F398" s="36"/>
-      <c r="G398" s="36"/>
-      <c r="H398" s="36"/>
-      <c r="I398" s="36"/>
-      <c r="J398" s="36"/>
-      <c r="K398" s="36"/>
-      <c r="L398" s="36"/>
-      <c r="M398" s="36"/>
-      <c r="N398" s="36"/>
-      <c r="O398" s="36"/>
+      <c r="A398" s="28">
+        <v>45716.580766087965</v>
+      </c>
+      <c r="B398" s="29">
+        <v>45716.0</v>
+      </c>
+      <c r="C398" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D398" s="23">
+        <v>15.0</v>
+      </c>
+      <c r="E398" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="F398" s="23" t="s">
+        <v>1268</v>
+      </c>
+      <c r="G398" s="29">
+        <v>31137.0</v>
+      </c>
+      <c r="H398" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="I398" s="23" t="s">
+        <v>1269</v>
+      </c>
+      <c r="J398" s="23" t="s">
+        <v>751</v>
+      </c>
+      <c r="K398" s="23">
+        <v>78702.0</v>
+      </c>
+      <c r="L398" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M398" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N398" s="23" t="s">
+        <v>1270</v>
+      </c>
+      <c r="O398" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="R398" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S398" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="T398" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="W398" s="30" t="s">
+        <v>861</v>
+      </c>
     </row>
     <row r="399">
-      <c r="A399" s="36"/>
-      <c r="B399" s="36"/>
-      <c r="C399" s="36"/>
-      <c r="D399" s="36"/>
-      <c r="E399" s="36"/>
-      <c r="F399" s="36"/>
-      <c r="G399" s="36"/>
-      <c r="H399" s="36"/>
-      <c r="I399" s="36"/>
-      <c r="J399" s="36"/>
-      <c r="K399" s="36"/>
-      <c r="L399" s="36"/>
-      <c r="M399" s="36"/>
-      <c r="N399" s="36"/>
-      <c r="O399" s="36"/>
+      <c r="A399" s="26">
+        <v>45716.59008900463</v>
+      </c>
+      <c r="B399" s="27">
+        <v>45716.0</v>
+      </c>
+      <c r="C399" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D399" s="17">
+        <v>30.0</v>
+      </c>
+      <c r="E399" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="F399" s="17" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G399" s="27">
+        <v>22057.0</v>
+      </c>
+      <c r="H399" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="I399" s="17" t="s">
+        <v>1272</v>
+      </c>
+      <c r="J399" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="K399" s="17">
+        <v>78758.0</v>
+      </c>
+      <c r="L399" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="M399" s="17" t="s">
+        <v>1273</v>
+      </c>
+      <c r="N399" s="17" t="s">
+        <v>1274</v>
+      </c>
+      <c r="O399" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="R399" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S399" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="T399" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="W399" s="31" t="s">
+        <v>1275</v>
+      </c>
     </row>
     <row r="400">
-      <c r="A400" s="36"/>
-      <c r="B400" s="36"/>
-      <c r="C400" s="36"/>
-      <c r="D400" s="36"/>
-      <c r="E400" s="36"/>
-      <c r="F400" s="36"/>
-      <c r="G400" s="36"/>
-      <c r="H400" s="36"/>
-      <c r="I400" s="36"/>
-      <c r="J400" s="36"/>
-      <c r="K400" s="36"/>
-      <c r="L400" s="36"/>
-      <c r="M400" s="36"/>
-      <c r="N400" s="36"/>
-      <c r="O400" s="36"/>
+      <c r="A400" s="28">
+        <v>45719.417188067135</v>
+      </c>
+      <c r="B400" s="29">
+        <v>45719.0</v>
+      </c>
+      <c r="C400" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D400" s="23">
+        <v>45.0</v>
+      </c>
+      <c r="E400" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="F400" s="23" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G400" s="29">
+        <v>29208.0</v>
+      </c>
+      <c r="H400" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I400" s="23" t="s">
+        <v>1277</v>
+      </c>
+      <c r="J400" s="23" t="s">
+        <v>953</v>
+      </c>
+      <c r="K400" s="23">
+        <v>78728.0</v>
+      </c>
+      <c r="L400" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M400" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="N400" s="23" t="s">
+        <v>1278</v>
+      </c>
+      <c r="O400" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R400" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S400" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="T400" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="W400" s="30" t="s">
+        <v>1279</v>
+      </c>
     </row>
     <row r="401">
-      <c r="A401" s="36"/>
-      <c r="B401" s="36"/>
-      <c r="C401" s="36"/>
-      <c r="D401" s="36"/>
-      <c r="E401" s="36"/>
-      <c r="F401" s="36"/>
-      <c r="G401" s="36"/>
-      <c r="H401" s="36"/>
-      <c r="I401" s="36"/>
-      <c r="J401" s="36"/>
-      <c r="K401" s="36"/>
-      <c r="L401" s="36"/>
-      <c r="M401" s="36"/>
-      <c r="N401" s="36"/>
-      <c r="O401" s="36"/>
+      <c r="A401" s="26">
+        <v>45719.421749699075</v>
+      </c>
+      <c r="B401" s="27">
+        <v>45719.0</v>
+      </c>
+      <c r="C401" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D401" s="17">
+        <v>90.0</v>
+      </c>
+      <c r="E401" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="F401" s="17" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G401" s="27">
+        <v>26094.0</v>
+      </c>
+      <c r="H401" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I401" s="17" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J401" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K401" s="17">
+        <v>78660.0</v>
+      </c>
+      <c r="L401" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M401" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N401" s="17" t="s">
+        <v>1282</v>
+      </c>
+      <c r="O401" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R401" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S401" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="T401" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="W401" s="31" t="s">
+        <v>1283</v>
+      </c>
     </row>
     <row r="402">
-      <c r="A402" s="36"/>
-      <c r="B402" s="36"/>
-      <c r="C402" s="36"/>
-      <c r="D402" s="36"/>
-      <c r="E402" s="36"/>
-      <c r="F402" s="36"/>
-      <c r="G402" s="36"/>
-      <c r="H402" s="36"/>
-      <c r="I402" s="36"/>
-      <c r="J402" s="36"/>
-      <c r="K402" s="36"/>
-      <c r="L402" s="36"/>
-      <c r="M402" s="36"/>
-      <c r="N402" s="36"/>
-      <c r="O402" s="36"/>
+      <c r="A402" s="28">
+        <v>45719.42385946759</v>
+      </c>
+      <c r="B402" s="29">
+        <v>45719.0</v>
+      </c>
+      <c r="C402" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D402" s="23">
+        <v>90.0</v>
+      </c>
+      <c r="E402" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="F402" s="23" t="s">
+        <v>1284</v>
+      </c>
+      <c r="G402" s="29">
+        <v>34357.0</v>
+      </c>
+      <c r="H402" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I402" s="23" t="s">
+        <v>1285</v>
+      </c>
+      <c r="J402" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K402" s="23">
+        <v>78745.0</v>
+      </c>
+      <c r="L402" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M402" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N402" s="23" t="s">
+        <v>1286</v>
+      </c>
+      <c r="O402" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R402" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S402" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="T402" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="W402" s="30" t="s">
+        <v>1287</v>
+      </c>
     </row>
     <row r="403">
-      <c r="A403" s="36"/>
-      <c r="B403" s="36"/>
-      <c r="C403" s="36"/>
-      <c r="D403" s="36"/>
-      <c r="E403" s="36"/>
-      <c r="F403" s="36"/>
-      <c r="G403" s="36"/>
-      <c r="H403" s="36"/>
-      <c r="I403" s="36"/>
-      <c r="J403" s="36"/>
-      <c r="K403" s="36"/>
-      <c r="L403" s="36"/>
-      <c r="M403" s="36"/>
-      <c r="N403" s="36"/>
-      <c r="O403" s="36"/>
+      <c r="A403" s="26">
+        <v>45719.42566100694</v>
+      </c>
+      <c r="B403" s="27">
+        <v>45719.0</v>
+      </c>
+      <c r="C403" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D403" s="17">
+        <v>90.0</v>
+      </c>
+      <c r="E403" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="F403" s="17" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G403" s="27">
+        <v>32766.0</v>
+      </c>
+      <c r="H403" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I403" s="17" t="s">
+        <v>1289</v>
+      </c>
+      <c r="J403" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K403" s="17">
+        <v>78752.0</v>
+      </c>
+      <c r="L403" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M403" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N403" s="17" t="s">
+        <v>839</v>
+      </c>
+      <c r="O403" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R403" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S403" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="T403" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="W403" s="31" t="s">
+        <v>1290</v>
+      </c>
     </row>
     <row r="404">
-      <c r="A404" s="36"/>
-      <c r="B404" s="36"/>
-      <c r="C404" s="36"/>
-      <c r="D404" s="36"/>
-      <c r="E404" s="36"/>
-      <c r="F404" s="36"/>
-      <c r="G404" s="36"/>
-      <c r="H404" s="36"/>
-      <c r="I404" s="36"/>
-      <c r="J404" s="36"/>
-      <c r="K404" s="36"/>
-      <c r="L404" s="36"/>
-      <c r="M404" s="36"/>
-      <c r="N404" s="36"/>
-      <c r="O404" s="36"/>
+      <c r="A404" s="28">
+        <v>45719.42713005787</v>
+      </c>
+      <c r="B404" s="29">
+        <v>45719.0</v>
+      </c>
+      <c r="C404" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D404" s="23">
+        <v>90.0</v>
+      </c>
+      <c r="E404" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="F404" s="23" t="s">
+        <v>1291</v>
+      </c>
+      <c r="G404" s="29">
+        <v>24817.0</v>
+      </c>
+      <c r="H404" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="I404" s="23" t="s">
+        <v>1292</v>
+      </c>
+      <c r="J404" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K404" s="23">
+        <v>78748.0</v>
+      </c>
+      <c r="L404" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M404" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N404" s="23" t="s">
+        <v>839</v>
+      </c>
+      <c r="O404" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R404" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S404" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="T404" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="W404" s="30" t="s">
+        <v>1293</v>
+      </c>
     </row>
     <row r="405">
-      <c r="A405" s="36"/>
-      <c r="B405" s="36"/>
-      <c r="C405" s="36"/>
-      <c r="D405" s="36"/>
-      <c r="E405" s="36"/>
-      <c r="F405" s="36"/>
-      <c r="G405" s="36"/>
-      <c r="H405" s="36"/>
-      <c r="I405" s="36"/>
-      <c r="J405" s="36"/>
-      <c r="K405" s="36"/>
-      <c r="L405" s="36"/>
-      <c r="M405" s="36"/>
-      <c r="N405" s="36"/>
-      <c r="O405" s="36"/>
+      <c r="A405" s="26">
+        <v>45719.48492920139</v>
+      </c>
+      <c r="B405" s="27">
+        <v>45686.0</v>
+      </c>
+      <c r="C405" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D405" s="17">
+        <v>90.0</v>
+      </c>
+      <c r="E405" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="F405" s="17" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G405" s="27">
+        <v>26125.0</v>
+      </c>
+      <c r="H405" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="I405" s="17" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J405" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="K405" s="17">
+        <v>78745.0</v>
+      </c>
+      <c r="L405" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M405" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N405" s="17" t="s">
+        <v>1296</v>
+      </c>
+      <c r="O405" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R405" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S405" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="T405" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="W405" s="31" t="s">
+        <v>1297</v>
+      </c>
     </row>
     <row r="406">
-      <c r="A406" s="36"/>
-      <c r="B406" s="36"/>
-      <c r="C406" s="36"/>
-      <c r="D406" s="36"/>
-      <c r="E406" s="36"/>
-      <c r="F406" s="36"/>
-      <c r="G406" s="36"/>
-      <c r="H406" s="36"/>
-      <c r="I406" s="36"/>
-      <c r="J406" s="36"/>
-      <c r="K406" s="36"/>
-      <c r="L406" s="36"/>
-      <c r="M406" s="36"/>
-      <c r="N406" s="36"/>
-      <c r="O406" s="36"/>
+      <c r="A406" s="28">
+        <v>45719.489632048615</v>
+      </c>
+      <c r="B406" s="29">
+        <v>45670.0</v>
+      </c>
+      <c r="C406" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D406" s="23">
+        <v>90.0</v>
+      </c>
+      <c r="E406" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="F406" s="23" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G406" s="29">
+        <v>23161.0</v>
+      </c>
+      <c r="H406" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I406" s="23" t="s">
+        <v>1299</v>
+      </c>
+      <c r="J406" s="23" t="s">
+        <v>953</v>
+      </c>
+      <c r="K406" s="23">
+        <v>78752.0</v>
+      </c>
+      <c r="L406" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="M406" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N406" s="23" t="s">
+        <v>1300</v>
+      </c>
+      <c r="O406" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R406" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S406" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="T406" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="W406" s="30" t="s">
+        <v>1301</v>
+      </c>
     </row>
     <row r="407">
-      <c r="A407" s="36"/>
-      <c r="B407" s="36"/>
-      <c r="C407" s="36"/>
-      <c r="D407" s="36"/>
-      <c r="E407" s="36"/>
-      <c r="F407" s="36"/>
-      <c r="G407" s="36"/>
-      <c r="H407" s="36"/>
-      <c r="I407" s="36"/>
-      <c r="J407" s="36"/>
-      <c r="K407" s="36"/>
-      <c r="L407" s="36"/>
-      <c r="M407" s="36"/>
-      <c r="N407" s="36"/>
-      <c r="O407" s="36"/>
+      <c r="A407" s="26">
+        <v>45719.57476614583</v>
+      </c>
+      <c r="B407" s="27">
+        <v>45719.0</v>
+      </c>
+      <c r="C407" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D407" s="17">
+        <v>60.0</v>
+      </c>
+      <c r="E407" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="F407" s="17" t="s">
+        <v>1302</v>
+      </c>
+      <c r="G407" s="27">
+        <v>21991.0</v>
+      </c>
+      <c r="H407" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I407" s="17" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J407" s="17" t="s">
+        <v>953</v>
+      </c>
+      <c r="K407" s="17">
+        <v>78744.0</v>
+      </c>
+      <c r="L407" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="M407" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N407" s="17" t="s">
+        <v>1304</v>
+      </c>
+      <c r="O407" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="R407" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S407" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="T407" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="W407" s="31" t="s">
+        <v>1305</v>
+      </c>
     </row>
     <row r="408">
-      <c r="A408" s="36"/>
-      <c r="B408" s="36"/>
-      <c r="C408" s="36"/>
-      <c r="D408" s="36"/>
-      <c r="E408" s="36"/>
-      <c r="F408" s="36"/>
-      <c r="G408" s="36"/>
-      <c r="H408" s="36"/>
-      <c r="I408" s="36"/>
-      <c r="J408" s="36"/>
-      <c r="K408" s="36"/>
-      <c r="L408" s="36"/>
-      <c r="M408" s="36"/>
-      <c r="N408" s="36"/>
-      <c r="O408" s="36"/>
+      <c r="A408" s="28">
+        <v>45719.86887731482</v>
+      </c>
+      <c r="B408" s="29">
+        <v>45719.0</v>
+      </c>
+      <c r="C408" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D408" s="23">
+        <v>30.0</v>
+      </c>
+      <c r="E408" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="F408" s="23" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G408" s="29">
+        <v>24312.0</v>
+      </c>
+      <c r="H408" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I408" s="23" t="s">
+        <v>1307</v>
+      </c>
+      <c r="J408" s="23" t="s">
+        <v>953</v>
+      </c>
+      <c r="K408" s="23">
+        <v>78724.0</v>
+      </c>
+      <c r="L408" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M408" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N408" s="23" t="s">
+        <v>1308</v>
+      </c>
+      <c r="O408" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R408" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="S408" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="T408" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="W408" s="30" t="s">
+        <v>1309</v>
+      </c>
     </row>
     <row r="409">
-      <c r="A409" s="36"/>
-      <c r="B409" s="36"/>
-      <c r="C409" s="36"/>
-      <c r="D409" s="36"/>
-      <c r="E409" s="36"/>
-      <c r="F409" s="36"/>
-      <c r="G409" s="36"/>
-      <c r="H409" s="36"/>
-      <c r="I409" s="36"/>
-      <c r="J409" s="36"/>
-      <c r="K409" s="36"/>
-      <c r="L409" s="36"/>
-      <c r="M409" s="36"/>
-      <c r="N409" s="36"/>
-      <c r="O409" s="36"/>
+      <c r="A409" s="26">
+        <v>45719.87111364583</v>
+      </c>
+      <c r="B409" s="27">
+        <v>45698.0</v>
+      </c>
+      <c r="C409" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D409" s="17">
+        <v>90.0</v>
+      </c>
+      <c r="E409" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="F409" s="17" t="s">
+        <v>1310</v>
+      </c>
+      <c r="G409" s="27">
+        <v>30717.0</v>
+      </c>
+      <c r="H409" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I409" s="17" t="s">
+        <v>1311</v>
+      </c>
+      <c r="J409" s="17" t="s">
+        <v>953</v>
+      </c>
+      <c r="K409" s="17">
+        <v>78704.0</v>
+      </c>
+      <c r="L409" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M409" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N409" s="17" t="s">
+        <v>1312</v>
+      </c>
+      <c r="O409" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R409" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S409" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="T409" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="W409" s="31" t="s">
+        <v>1243</v>
+      </c>
     </row>
     <row r="410">
-      <c r="A410" s="36"/>
-      <c r="B410" s="36"/>
-      <c r="C410" s="36"/>
-      <c r="D410" s="36"/>
-      <c r="E410" s="36"/>
-      <c r="F410" s="36"/>
-      <c r="G410" s="36"/>
-      <c r="H410" s="36"/>
-      <c r="I410" s="36"/>
-      <c r="J410" s="36"/>
-      <c r="K410" s="36"/>
-      <c r="L410" s="36"/>
-      <c r="M410" s="36"/>
-      <c r="N410" s="36"/>
-      <c r="O410" s="36"/>
+      <c r="A410" s="28">
+        <v>45719.87549091435</v>
+      </c>
+      <c r="B410" s="29">
+        <v>45713.0</v>
+      </c>
+      <c r="C410" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D410" s="23">
+        <v>90.0</v>
+      </c>
+      <c r="E410" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="F410" s="23" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G410" s="29">
+        <v>25635.0</v>
+      </c>
+      <c r="H410" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="I410" s="23" t="s">
+        <v>1314</v>
+      </c>
+      <c r="J410" s="23" t="s">
+        <v>953</v>
+      </c>
+      <c r="K410" s="23">
+        <v>78721.0</v>
+      </c>
+      <c r="L410" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="M410" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N410" s="23" t="s">
+        <v>1315</v>
+      </c>
+      <c r="O410" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R410" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S410" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="T410" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="W410" s="30" t="s">
+        <v>1212</v>
+      </c>
     </row>
     <row r="411">
-      <c r="A411" s="36"/>
-      <c r="B411" s="36"/>
-      <c r="C411" s="36"/>
-      <c r="D411" s="36"/>
-      <c r="E411" s="36"/>
-      <c r="F411" s="36"/>
-      <c r="G411" s="36"/>
-      <c r="H411" s="36"/>
-      <c r="I411" s="36"/>
-      <c r="J411" s="36"/>
-      <c r="K411" s="36"/>
-      <c r="L411" s="36"/>
-      <c r="M411" s="36"/>
-      <c r="N411" s="36"/>
-      <c r="O411" s="36"/>
+      <c r="A411" s="26">
+        <v>45719.87775702546</v>
+      </c>
+      <c r="B411" s="27">
+        <v>45714.0</v>
+      </c>
+      <c r="C411" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D411" s="17">
+        <v>90.0</v>
+      </c>
+      <c r="E411" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="F411" s="17" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G411" s="27">
+        <v>32243.0</v>
+      </c>
+      <c r="H411" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I411" s="17" t="s">
+        <v>1317</v>
+      </c>
+      <c r="J411" s="17" t="s">
+        <v>953</v>
+      </c>
+      <c r="K411" s="17">
+        <v>78754.0</v>
+      </c>
+      <c r="L411" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M411" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N411" s="17" t="s">
+        <v>1318</v>
+      </c>
+      <c r="O411" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R411" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S411" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="T411" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="W411" s="31" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="412">
-      <c r="A412" s="36"/>
-      <c r="B412" s="36"/>
-      <c r="C412" s="36"/>
-      <c r="D412" s="36"/>
-      <c r="E412" s="36"/>
-      <c r="F412" s="36"/>
-      <c r="G412" s="36"/>
-      <c r="H412" s="36"/>
-      <c r="I412" s="36"/>
-      <c r="J412" s="36"/>
-      <c r="K412" s="36"/>
-      <c r="L412" s="36"/>
-      <c r="M412" s="36"/>
-      <c r="N412" s="36"/>
-      <c r="O412" s="36"/>
+      <c r="A412" s="28">
+        <v>45719.87996398148</v>
+      </c>
+      <c r="B412" s="29">
+        <v>45715.0</v>
+      </c>
+      <c r="C412" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D412" s="23">
+        <v>90.0</v>
+      </c>
+      <c r="E412" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="F412" s="23" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G412" s="29">
+        <v>36778.0</v>
+      </c>
+      <c r="H412" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="I412" s="23" t="s">
+        <v>1320</v>
+      </c>
+      <c r="J412" s="23" t="s">
+        <v>953</v>
+      </c>
+      <c r="K412" s="23">
+        <v>78747.0</v>
+      </c>
+      <c r="L412" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="M412" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N412" s="23" t="s">
+        <v>1321</v>
+      </c>
+      <c r="O412" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R412" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S412" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="T412" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="W412" s="30" t="s">
+        <v>1322</v>
+      </c>
     </row>
     <row r="413">
-      <c r="A413" s="36"/>
-      <c r="B413" s="36"/>
-      <c r="C413" s="36"/>
-      <c r="D413" s="36"/>
-      <c r="E413" s="36"/>
-      <c r="F413" s="36"/>
-      <c r="G413" s="36"/>
-      <c r="H413" s="36"/>
-      <c r="I413" s="36"/>
-      <c r="J413" s="36"/>
-      <c r="K413" s="36"/>
-      <c r="L413" s="36"/>
-      <c r="M413" s="36"/>
-      <c r="N413" s="36"/>
-      <c r="O413" s="36"/>
+      <c r="A413" s="26">
+        <v>45719.882208310184</v>
+      </c>
+      <c r="B413" s="27">
+        <v>45698.0</v>
+      </c>
+      <c r="C413" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D413" s="17">
+        <v>90.0</v>
+      </c>
+      <c r="E413" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="F413" s="17" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G413" s="27">
+        <v>26144.0</v>
+      </c>
+      <c r="H413" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I413" s="17" t="s">
+        <v>1323</v>
+      </c>
+      <c r="J413" s="17" t="s">
+        <v>953</v>
+      </c>
+      <c r="K413" s="17">
+        <v>78754.0</v>
+      </c>
+      <c r="L413" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="M413" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N413" s="17" t="s">
+        <v>1324</v>
+      </c>
+      <c r="O413" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R413" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S413" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="T413" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="W413" s="31" t="s">
+        <v>1325</v>
+      </c>
     </row>
     <row r="414">
-      <c r="A414" s="36"/>
-      <c r="B414" s="36"/>
-      <c r="C414" s="36"/>
-      <c r="D414" s="36"/>
-      <c r="E414" s="36"/>
-      <c r="F414" s="36"/>
-      <c r="G414" s="36"/>
-      <c r="H414" s="36"/>
-      <c r="I414" s="36"/>
-      <c r="J414" s="36"/>
-      <c r="K414" s="36"/>
-      <c r="L414" s="36"/>
-      <c r="M414" s="36"/>
-      <c r="N414" s="36"/>
-      <c r="O414" s="36"/>
+      <c r="A414" s="28">
+        <v>45719.88481148148</v>
+      </c>
+      <c r="B414" s="29">
+        <v>45693.0</v>
+      </c>
+      <c r="C414" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D414" s="23">
+        <v>90.0</v>
+      </c>
+      <c r="E414" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="F414" s="23" t="s">
+        <v>1326</v>
+      </c>
+      <c r="G414" s="29">
+        <v>14560.0</v>
+      </c>
+      <c r="H414" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I414" s="23" t="s">
+        <v>1327</v>
+      </c>
+      <c r="J414" s="23" t="s">
+        <v>1328</v>
+      </c>
+      <c r="K414" s="23">
+        <v>78660.0</v>
+      </c>
+      <c r="L414" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="M414" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N414" s="23" t="s">
+        <v>1329</v>
+      </c>
+      <c r="O414" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R414" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S414" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="T414" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="W414" s="30" t="s">
+        <v>1330</v>
+      </c>
     </row>
     <row r="415">
-      <c r="A415" s="36"/>
-      <c r="B415" s="36"/>
-      <c r="C415" s="36"/>
-      <c r="D415" s="36"/>
-      <c r="E415" s="36"/>
-      <c r="F415" s="36"/>
-      <c r="G415" s="36"/>
-      <c r="H415" s="36"/>
-      <c r="I415" s="36"/>
-      <c r="J415" s="36"/>
-      <c r="K415" s="36"/>
-      <c r="L415" s="36"/>
-      <c r="M415" s="36"/>
-      <c r="N415" s="36"/>
-      <c r="O415" s="36"/>
+      <c r="A415" s="26">
+        <v>45719.88688248843</v>
+      </c>
+      <c r="B415" s="27">
+        <v>45698.0</v>
+      </c>
+      <c r="C415" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D415" s="17">
+        <v>90.0</v>
+      </c>
+      <c r="E415" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="F415" s="17" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G415" s="27">
+        <v>29430.0</v>
+      </c>
+      <c r="H415" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="I415" s="17" t="s">
+        <v>1332</v>
+      </c>
+      <c r="J415" s="17" t="s">
+        <v>953</v>
+      </c>
+      <c r="M415" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N415" s="17" t="s">
+        <v>1200</v>
+      </c>
+      <c r="O415" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R415" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S415" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="T415" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="W415" s="31" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="416">
-      <c r="A416" s="36"/>
-      <c r="B416" s="36"/>
-      <c r="C416" s="36"/>
-      <c r="D416" s="36"/>
-      <c r="E416" s="36"/>
-      <c r="F416" s="36"/>
-      <c r="G416" s="36"/>
-      <c r="H416" s="36"/>
-      <c r="I416" s="36"/>
-      <c r="J416" s="36"/>
-      <c r="K416" s="36"/>
-      <c r="L416" s="36"/>
-      <c r="M416" s="36"/>
-      <c r="N416" s="36"/>
-      <c r="O416" s="36"/>
+      <c r="A416" s="28">
+        <v>45719.889850694446</v>
+      </c>
+      <c r="B416" s="29">
+        <v>45698.0</v>
+      </c>
+      <c r="C416" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D416" s="23">
+        <v>90.0</v>
+      </c>
+      <c r="E416" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="F416" s="23" t="s">
+        <v>1334</v>
+      </c>
+      <c r="G416" s="29">
+        <v>35922.0</v>
+      </c>
+      <c r="H416" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="I416" s="23" t="s">
+        <v>1335</v>
+      </c>
+      <c r="J416" s="23" t="s">
+        <v>953</v>
+      </c>
+      <c r="K416" s="23">
+        <v>78724.0</v>
+      </c>
+      <c r="L416" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="M416" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N416" s="23" t="s">
+        <v>1336</v>
+      </c>
+      <c r="O416" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R416" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S416" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="T416" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="W416" s="30" t="s">
+        <v>1337</v>
+      </c>
     </row>
     <row r="417">
-      <c r="A417" s="36"/>
-      <c r="B417" s="36"/>
-      <c r="C417" s="36"/>
-      <c r="D417" s="36"/>
-      <c r="E417" s="36"/>
-      <c r="F417" s="36"/>
-      <c r="G417" s="36"/>
-      <c r="H417" s="36"/>
-      <c r="I417" s="36"/>
-      <c r="J417" s="36"/>
-      <c r="K417" s="36"/>
-      <c r="L417" s="36"/>
-      <c r="M417" s="36"/>
-      <c r="N417" s="36"/>
-      <c r="O417" s="36"/>
+      <c r="A417" s="26">
+        <v>45719.895980243055</v>
+      </c>
+      <c r="B417" s="27">
+        <v>45698.0</v>
+      </c>
+      <c r="C417" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D417" s="17">
+        <v>90.0</v>
+      </c>
+      <c r="E417" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="F417" s="17" t="s">
+        <v>1338</v>
+      </c>
+      <c r="G417" s="27">
+        <v>32027.0</v>
+      </c>
+      <c r="H417" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="I417" s="17" t="s">
+        <v>1339</v>
+      </c>
+      <c r="J417" s="17" t="s">
+        <v>1340</v>
+      </c>
+      <c r="K417" s="17">
+        <v>78659.0</v>
+      </c>
+      <c r="L417" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="M417" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N417" s="17" t="s">
+        <v>1341</v>
+      </c>
+      <c r="O417" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R417" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="S417" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="T417" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="W417" s="31" t="s">
+        <v>1342</v>
+      </c>
     </row>
     <row r="418">
-      <c r="A418" s="36"/>
-      <c r="B418" s="36"/>
-      <c r="C418" s="36"/>
-      <c r="D418" s="36"/>
-      <c r="E418" s="36"/>
-      <c r="F418" s="36"/>
-      <c r="G418" s="36"/>
-      <c r="H418" s="36"/>
-      <c r="I418" s="36"/>
-      <c r="J418" s="36"/>
-      <c r="K418" s="36"/>
-      <c r="L418" s="36"/>
-      <c r="M418" s="36"/>
-      <c r="N418" s="36"/>
-      <c r="O418" s="36"/>
+      <c r="A418" s="28">
+        <v>45719.89795521991</v>
+      </c>
+      <c r="B418" s="29">
+        <v>45698.0</v>
+      </c>
+      <c r="C418" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D418" s="23">
+        <v>90.0</v>
+      </c>
+      <c r="E418" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="F418" s="23" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G418" s="29">
+        <v>22248.0</v>
+      </c>
+      <c r="H418" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I418" s="23" t="s">
+        <v>1344</v>
+      </c>
+      <c r="J418" s="23" t="s">
+        <v>953</v>
+      </c>
+      <c r="K418" s="23">
+        <v>78724.0</v>
+      </c>
+      <c r="L418" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M418" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N418" s="23" t="s">
+        <v>1345</v>
+      </c>
+      <c r="O418" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R418" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S418" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="T418" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="W418" s="30" t="s">
+        <v>1346</v>
+      </c>
     </row>
     <row r="419">
-      <c r="A419" s="36"/>
-      <c r="B419" s="36"/>
-      <c r="C419" s="36"/>
-      <c r="D419" s="36"/>
-      <c r="E419" s="36"/>
-      <c r="F419" s="36"/>
-      <c r="G419" s="36"/>
-      <c r="H419" s="36"/>
-      <c r="I419" s="36"/>
-      <c r="J419" s="36"/>
-      <c r="K419" s="36"/>
-      <c r="L419" s="36"/>
-      <c r="M419" s="36"/>
-      <c r="N419" s="36"/>
-      <c r="O419" s="36"/>
+      <c r="A419" s="26">
+        <v>45720.44830509259</v>
+      </c>
+      <c r="B419" s="27">
+        <v>45720.0</v>
+      </c>
+      <c r="C419" s="17" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D419" s="17">
+        <v>30.0</v>
+      </c>
+      <c r="E419" s="17" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G419" s="27">
+        <v>28652.0</v>
+      </c>
+      <c r="H419" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I419" s="17" t="s">
+        <v>1349</v>
+      </c>
+      <c r="J419" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K419" s="17">
+        <v>78704.0</v>
+      </c>
+      <c r="L419" s="17" t="s">
+        <v>1249</v>
+      </c>
+      <c r="M419" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N419" s="17" t="s">
+        <v>1350</v>
+      </c>
+      <c r="O419" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R419" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="S419" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="T419" s="17">
+        <v>60.0</v>
+      </c>
+      <c r="W419" s="31" t="s">
+        <v>1351</v>
+      </c>
     </row>
     <row r="420">
-      <c r="A420" s="36"/>
-      <c r="B420" s="36"/>
-      <c r="C420" s="36"/>
-      <c r="D420" s="36"/>
-      <c r="E420" s="36"/>
-      <c r="F420" s="36"/>
-      <c r="G420" s="36"/>
-      <c r="H420" s="36"/>
-      <c r="I420" s="36"/>
-      <c r="J420" s="36"/>
-      <c r="K420" s="36"/>
-      <c r="L420" s="36"/>
-      <c r="M420" s="36"/>
-      <c r="N420" s="36"/>
-      <c r="O420" s="36"/>
+      <c r="A420" s="32">
+        <v>45720.47967418982</v>
+      </c>
+      <c r="B420" s="33">
+        <v>45720.0</v>
+      </c>
+      <c r="C420" s="34" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D420" s="34">
+        <v>30.0</v>
+      </c>
+      <c r="E420" s="34" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F420" s="34" t="s">
+        <v>1352</v>
+      </c>
+      <c r="G420" s="33">
+        <v>22949.0</v>
+      </c>
+      <c r="H420" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="I420" s="34" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J420" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K420" s="34">
+        <v>78741.0</v>
+      </c>
+      <c r="M420" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="N420" s="34" t="s">
+        <v>1354</v>
+      </c>
+      <c r="O420" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="R420" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="S420" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="T420" s="34">
+        <v>60.0</v>
+      </c>
+      <c r="W420" s="35" t="s">
+        <v>1355</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="36"/>
@@ -25806,6 +29322,1162 @@
       <c r="N452" s="36"/>
       <c r="O452" s="36"/>
     </row>
+    <row r="453">
+      <c r="A453" s="36"/>
+      <c r="B453" s="36"/>
+      <c r="C453" s="36"/>
+      <c r="D453" s="36"/>
+      <c r="E453" s="36"/>
+      <c r="F453" s="36"/>
+      <c r="G453" s="36"/>
+      <c r="H453" s="36"/>
+      <c r="I453" s="36"/>
+      <c r="J453" s="36"/>
+      <c r="K453" s="36"/>
+      <c r="L453" s="36"/>
+      <c r="M453" s="36"/>
+      <c r="N453" s="36"/>
+      <c r="O453" s="36"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="36"/>
+      <c r="B454" s="36"/>
+      <c r="C454" s="36"/>
+      <c r="D454" s="36"/>
+      <c r="E454" s="36"/>
+      <c r="F454" s="36"/>
+      <c r="G454" s="36"/>
+      <c r="H454" s="36"/>
+      <c r="I454" s="36"/>
+      <c r="J454" s="36"/>
+      <c r="K454" s="36"/>
+      <c r="L454" s="36"/>
+      <c r="M454" s="36"/>
+      <c r="N454" s="36"/>
+      <c r="O454" s="36"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="36"/>
+      <c r="B455" s="36"/>
+      <c r="C455" s="36"/>
+      <c r="D455" s="36"/>
+      <c r="E455" s="36"/>
+      <c r="F455" s="36"/>
+      <c r="G455" s="36"/>
+      <c r="H455" s="36"/>
+      <c r="I455" s="36"/>
+      <c r="J455" s="36"/>
+      <c r="K455" s="36"/>
+      <c r="L455" s="36"/>
+      <c r="M455" s="36"/>
+      <c r="N455" s="36"/>
+      <c r="O455" s="36"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="36"/>
+      <c r="B456" s="36"/>
+      <c r="C456" s="36"/>
+      <c r="D456" s="36"/>
+      <c r="E456" s="36"/>
+      <c r="F456" s="36"/>
+      <c r="G456" s="36"/>
+      <c r="H456" s="36"/>
+      <c r="I456" s="36"/>
+      <c r="J456" s="36"/>
+      <c r="K456" s="36"/>
+      <c r="L456" s="36"/>
+      <c r="M456" s="36"/>
+      <c r="N456" s="36"/>
+      <c r="O456" s="36"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="36"/>
+      <c r="B457" s="36"/>
+      <c r="C457" s="36"/>
+      <c r="D457" s="36"/>
+      <c r="E457" s="36"/>
+      <c r="F457" s="36"/>
+      <c r="G457" s="36"/>
+      <c r="H457" s="36"/>
+      <c r="I457" s="36"/>
+      <c r="J457" s="36"/>
+      <c r="K457" s="36"/>
+      <c r="L457" s="36"/>
+      <c r="M457" s="36"/>
+      <c r="N457" s="36"/>
+      <c r="O457" s="36"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="36"/>
+      <c r="B458" s="36"/>
+      <c r="C458" s="36"/>
+      <c r="D458" s="36"/>
+      <c r="E458" s="36"/>
+      <c r="F458" s="36"/>
+      <c r="G458" s="36"/>
+      <c r="H458" s="36"/>
+      <c r="I458" s="36"/>
+      <c r="J458" s="36"/>
+      <c r="K458" s="36"/>
+      <c r="L458" s="36"/>
+      <c r="M458" s="36"/>
+      <c r="N458" s="36"/>
+      <c r="O458" s="36"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="36"/>
+      <c r="B459" s="36"/>
+      <c r="C459" s="36"/>
+      <c r="D459" s="36"/>
+      <c r="E459" s="36"/>
+      <c r="F459" s="36"/>
+      <c r="G459" s="36"/>
+      <c r="H459" s="36"/>
+      <c r="I459" s="36"/>
+      <c r="J459" s="36"/>
+      <c r="K459" s="36"/>
+      <c r="L459" s="36"/>
+      <c r="M459" s="36"/>
+      <c r="N459" s="36"/>
+      <c r="O459" s="36"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="36"/>
+      <c r="B460" s="36"/>
+      <c r="C460" s="36"/>
+      <c r="D460" s="36"/>
+      <c r="E460" s="36"/>
+      <c r="F460" s="36"/>
+      <c r="G460" s="36"/>
+      <c r="H460" s="36"/>
+      <c r="I460" s="36"/>
+      <c r="J460" s="36"/>
+      <c r="K460" s="36"/>
+      <c r="L460" s="36"/>
+      <c r="M460" s="36"/>
+      <c r="N460" s="36"/>
+      <c r="O460" s="36"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="36"/>
+      <c r="B461" s="36"/>
+      <c r="C461" s="36"/>
+      <c r="D461" s="36"/>
+      <c r="E461" s="36"/>
+      <c r="F461" s="36"/>
+      <c r="G461" s="36"/>
+      <c r="H461" s="36"/>
+      <c r="I461" s="36"/>
+      <c r="J461" s="36"/>
+      <c r="K461" s="36"/>
+      <c r="L461" s="36"/>
+      <c r="M461" s="36"/>
+      <c r="N461" s="36"/>
+      <c r="O461" s="36"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="36"/>
+      <c r="B462" s="36"/>
+      <c r="C462" s="36"/>
+      <c r="D462" s="36"/>
+      <c r="E462" s="36"/>
+      <c r="F462" s="36"/>
+      <c r="G462" s="36"/>
+      <c r="H462" s="36"/>
+      <c r="I462" s="36"/>
+      <c r="J462" s="36"/>
+      <c r="K462" s="36"/>
+      <c r="L462" s="36"/>
+      <c r="M462" s="36"/>
+      <c r="N462" s="36"/>
+      <c r="O462" s="36"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="36"/>
+      <c r="B463" s="36"/>
+      <c r="C463" s="36"/>
+      <c r="D463" s="36"/>
+      <c r="E463" s="36"/>
+      <c r="F463" s="36"/>
+      <c r="G463" s="36"/>
+      <c r="H463" s="36"/>
+      <c r="I463" s="36"/>
+      <c r="J463" s="36"/>
+      <c r="K463" s="36"/>
+      <c r="L463" s="36"/>
+      <c r="M463" s="36"/>
+      <c r="N463" s="36"/>
+      <c r="O463" s="36"/>
+    </row>
+    <row r="464">
+      <c r="A464" s="36"/>
+      <c r="B464" s="36"/>
+      <c r="C464" s="36"/>
+      <c r="D464" s="36"/>
+      <c r="E464" s="36"/>
+      <c r="F464" s="36"/>
+      <c r="G464" s="36"/>
+      <c r="H464" s="36"/>
+      <c r="I464" s="36"/>
+      <c r="J464" s="36"/>
+      <c r="K464" s="36"/>
+      <c r="L464" s="36"/>
+      <c r="M464" s="36"/>
+      <c r="N464" s="36"/>
+      <c r="O464" s="36"/>
+    </row>
+    <row r="465">
+      <c r="A465" s="36"/>
+      <c r="B465" s="36"/>
+      <c r="C465" s="36"/>
+      <c r="D465" s="36"/>
+      <c r="E465" s="36"/>
+      <c r="F465" s="36"/>
+      <c r="G465" s="36"/>
+      <c r="H465" s="36"/>
+      <c r="I465" s="36"/>
+      <c r="J465" s="36"/>
+      <c r="K465" s="36"/>
+      <c r="L465" s="36"/>
+      <c r="M465" s="36"/>
+      <c r="N465" s="36"/>
+      <c r="O465" s="36"/>
+    </row>
+    <row r="466">
+      <c r="A466" s="36"/>
+      <c r="B466" s="36"/>
+      <c r="C466" s="36"/>
+      <c r="D466" s="36"/>
+      <c r="E466" s="36"/>
+      <c r="F466" s="36"/>
+      <c r="G466" s="36"/>
+      <c r="H466" s="36"/>
+      <c r="I466" s="36"/>
+      <c r="J466" s="36"/>
+      <c r="K466" s="36"/>
+      <c r="L466" s="36"/>
+      <c r="M466" s="36"/>
+      <c r="N466" s="36"/>
+      <c r="O466" s="36"/>
+    </row>
+    <row r="467">
+      <c r="A467" s="36"/>
+      <c r="B467" s="36"/>
+      <c r="C467" s="36"/>
+      <c r="D467" s="36"/>
+      <c r="E467" s="36"/>
+      <c r="F467" s="36"/>
+      <c r="G467" s="36"/>
+      <c r="H467" s="36"/>
+      <c r="I467" s="36"/>
+      <c r="J467" s="36"/>
+      <c r="K467" s="36"/>
+      <c r="L467" s="36"/>
+      <c r="M467" s="36"/>
+      <c r="N467" s="36"/>
+      <c r="O467" s="36"/>
+    </row>
+    <row r="468">
+      <c r="A468" s="36"/>
+      <c r="B468" s="36"/>
+      <c r="C468" s="36"/>
+      <c r="D468" s="36"/>
+      <c r="E468" s="36"/>
+      <c r="F468" s="36"/>
+      <c r="G468" s="36"/>
+      <c r="H468" s="36"/>
+      <c r="I468" s="36"/>
+      <c r="J468" s="36"/>
+      <c r="K468" s="36"/>
+      <c r="L468" s="36"/>
+      <c r="M468" s="36"/>
+      <c r="N468" s="36"/>
+      <c r="O468" s="36"/>
+    </row>
+    <row r="469">
+      <c r="A469" s="36"/>
+      <c r="B469" s="36"/>
+      <c r="C469" s="36"/>
+      <c r="D469" s="36"/>
+      <c r="E469" s="36"/>
+      <c r="F469" s="36"/>
+      <c r="G469" s="36"/>
+      <c r="H469" s="36"/>
+      <c r="I469" s="36"/>
+      <c r="J469" s="36"/>
+      <c r="K469" s="36"/>
+      <c r="L469" s="36"/>
+      <c r="M469" s="36"/>
+      <c r="N469" s="36"/>
+      <c r="O469" s="36"/>
+    </row>
+    <row r="470">
+      <c r="A470" s="36"/>
+      <c r="B470" s="36"/>
+      <c r="C470" s="36"/>
+      <c r="D470" s="36"/>
+      <c r="E470" s="36"/>
+      <c r="F470" s="36"/>
+      <c r="G470" s="36"/>
+      <c r="H470" s="36"/>
+      <c r="I470" s="36"/>
+      <c r="J470" s="36"/>
+      <c r="K470" s="36"/>
+      <c r="L470" s="36"/>
+      <c r="M470" s="36"/>
+      <c r="N470" s="36"/>
+      <c r="O470" s="36"/>
+    </row>
+    <row r="471">
+      <c r="A471" s="36"/>
+      <c r="B471" s="36"/>
+      <c r="C471" s="36"/>
+      <c r="D471" s="36"/>
+      <c r="E471" s="36"/>
+      <c r="F471" s="36"/>
+      <c r="G471" s="36"/>
+      <c r="H471" s="36"/>
+      <c r="I471" s="36"/>
+      <c r="J471" s="36"/>
+      <c r="K471" s="36"/>
+      <c r="L471" s="36"/>
+      <c r="M471" s="36"/>
+      <c r="N471" s="36"/>
+      <c r="O471" s="36"/>
+    </row>
+    <row r="472">
+      <c r="A472" s="36"/>
+      <c r="B472" s="36"/>
+      <c r="C472" s="36"/>
+      <c r="D472" s="36"/>
+      <c r="E472" s="36"/>
+      <c r="F472" s="36"/>
+      <c r="G472" s="36"/>
+      <c r="H472" s="36"/>
+      <c r="I472" s="36"/>
+      <c r="J472" s="36"/>
+      <c r="K472" s="36"/>
+      <c r="L472" s="36"/>
+      <c r="M472" s="36"/>
+      <c r="N472" s="36"/>
+      <c r="O472" s="36"/>
+    </row>
+    <row r="473">
+      <c r="A473" s="36"/>
+      <c r="B473" s="36"/>
+      <c r="C473" s="36"/>
+      <c r="D473" s="36"/>
+      <c r="E473" s="36"/>
+      <c r="F473" s="36"/>
+      <c r="G473" s="36"/>
+      <c r="H473" s="36"/>
+      <c r="I473" s="36"/>
+      <c r="J473" s="36"/>
+      <c r="K473" s="36"/>
+      <c r="L473" s="36"/>
+      <c r="M473" s="36"/>
+      <c r="N473" s="36"/>
+      <c r="O473" s="36"/>
+    </row>
+    <row r="474">
+      <c r="A474" s="36"/>
+      <c r="B474" s="36"/>
+      <c r="C474" s="36"/>
+      <c r="D474" s="36"/>
+      <c r="E474" s="36"/>
+      <c r="F474" s="36"/>
+      <c r="G474" s="36"/>
+      <c r="H474" s="36"/>
+      <c r="I474" s="36"/>
+      <c r="J474" s="36"/>
+      <c r="K474" s="36"/>
+      <c r="L474" s="36"/>
+      <c r="M474" s="36"/>
+      <c r="N474" s="36"/>
+      <c r="O474" s="36"/>
+    </row>
+    <row r="475">
+      <c r="A475" s="36"/>
+      <c r="B475" s="36"/>
+      <c r="C475" s="36"/>
+      <c r="D475" s="36"/>
+      <c r="E475" s="36"/>
+      <c r="F475" s="36"/>
+      <c r="G475" s="36"/>
+      <c r="H475" s="36"/>
+      <c r="I475" s="36"/>
+      <c r="J475" s="36"/>
+      <c r="K475" s="36"/>
+      <c r="L475" s="36"/>
+      <c r="M475" s="36"/>
+      <c r="N475" s="36"/>
+      <c r="O475" s="36"/>
+    </row>
+    <row r="476">
+      <c r="A476" s="36"/>
+      <c r="B476" s="36"/>
+      <c r="C476" s="36"/>
+      <c r="D476" s="36"/>
+      <c r="E476" s="36"/>
+      <c r="F476" s="36"/>
+      <c r="G476" s="36"/>
+      <c r="H476" s="36"/>
+      <c r="I476" s="36"/>
+      <c r="J476" s="36"/>
+      <c r="K476" s="36"/>
+      <c r="L476" s="36"/>
+      <c r="M476" s="36"/>
+      <c r="N476" s="36"/>
+      <c r="O476" s="36"/>
+    </row>
+    <row r="477">
+      <c r="A477" s="36"/>
+      <c r="B477" s="36"/>
+      <c r="C477" s="36"/>
+      <c r="D477" s="36"/>
+      <c r="E477" s="36"/>
+      <c r="F477" s="36"/>
+      <c r="G477" s="36"/>
+      <c r="H477" s="36"/>
+      <c r="I477" s="36"/>
+      <c r="J477" s="36"/>
+      <c r="K477" s="36"/>
+      <c r="L477" s="36"/>
+      <c r="M477" s="36"/>
+      <c r="N477" s="36"/>
+      <c r="O477" s="36"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="36"/>
+      <c r="B478" s="36"/>
+      <c r="C478" s="36"/>
+      <c r="D478" s="36"/>
+      <c r="E478" s="36"/>
+      <c r="F478" s="36"/>
+      <c r="G478" s="36"/>
+      <c r="H478" s="36"/>
+      <c r="I478" s="36"/>
+      <c r="J478" s="36"/>
+      <c r="K478" s="36"/>
+      <c r="L478" s="36"/>
+      <c r="M478" s="36"/>
+      <c r="N478" s="36"/>
+      <c r="O478" s="36"/>
+    </row>
+    <row r="479">
+      <c r="A479" s="36"/>
+      <c r="B479" s="36"/>
+      <c r="C479" s="36"/>
+      <c r="D479" s="36"/>
+      <c r="E479" s="36"/>
+      <c r="F479" s="36"/>
+      <c r="G479" s="36"/>
+      <c r="H479" s="36"/>
+      <c r="I479" s="36"/>
+      <c r="J479" s="36"/>
+      <c r="K479" s="36"/>
+      <c r="L479" s="36"/>
+      <c r="M479" s="36"/>
+      <c r="N479" s="36"/>
+      <c r="O479" s="36"/>
+    </row>
+    <row r="480">
+      <c r="A480" s="36"/>
+      <c r="B480" s="36"/>
+      <c r="C480" s="36"/>
+      <c r="D480" s="36"/>
+      <c r="E480" s="36"/>
+      <c r="F480" s="36"/>
+      <c r="G480" s="36"/>
+      <c r="H480" s="36"/>
+      <c r="I480" s="36"/>
+      <c r="J480" s="36"/>
+      <c r="K480" s="36"/>
+      <c r="L480" s="36"/>
+      <c r="M480" s="36"/>
+      <c r="N480" s="36"/>
+      <c r="O480" s="36"/>
+    </row>
+    <row r="481">
+      <c r="A481" s="36"/>
+      <c r="B481" s="36"/>
+      <c r="C481" s="36"/>
+      <c r="D481" s="36"/>
+      <c r="E481" s="36"/>
+      <c r="F481" s="36"/>
+      <c r="G481" s="36"/>
+      <c r="H481" s="36"/>
+      <c r="I481" s="36"/>
+      <c r="J481" s="36"/>
+      <c r="K481" s="36"/>
+      <c r="L481" s="36"/>
+      <c r="M481" s="36"/>
+      <c r="N481" s="36"/>
+      <c r="O481" s="36"/>
+    </row>
+    <row r="482">
+      <c r="A482" s="36"/>
+      <c r="B482" s="36"/>
+      <c r="C482" s="36"/>
+      <c r="D482" s="36"/>
+      <c r="E482" s="36"/>
+      <c r="F482" s="36"/>
+      <c r="G482" s="36"/>
+      <c r="H482" s="36"/>
+      <c r="I482" s="36"/>
+      <c r="J482" s="36"/>
+      <c r="K482" s="36"/>
+      <c r="L482" s="36"/>
+      <c r="M482" s="36"/>
+      <c r="N482" s="36"/>
+      <c r="O482" s="36"/>
+    </row>
+    <row r="483">
+      <c r="A483" s="36"/>
+      <c r="B483" s="36"/>
+      <c r="C483" s="36"/>
+      <c r="D483" s="36"/>
+      <c r="E483" s="36"/>
+      <c r="F483" s="36"/>
+      <c r="G483" s="36"/>
+      <c r="H483" s="36"/>
+      <c r="I483" s="36"/>
+      <c r="J483" s="36"/>
+      <c r="K483" s="36"/>
+      <c r="L483" s="36"/>
+      <c r="M483" s="36"/>
+      <c r="N483" s="36"/>
+      <c r="O483" s="36"/>
+    </row>
+    <row r="484">
+      <c r="A484" s="36"/>
+      <c r="B484" s="36"/>
+      <c r="C484" s="36"/>
+      <c r="D484" s="36"/>
+      <c r="E484" s="36"/>
+      <c r="F484" s="36"/>
+      <c r="G484" s="36"/>
+      <c r="H484" s="36"/>
+      <c r="I484" s="36"/>
+      <c r="J484" s="36"/>
+      <c r="K484" s="36"/>
+      <c r="L484" s="36"/>
+      <c r="M484" s="36"/>
+      <c r="N484" s="36"/>
+      <c r="O484" s="36"/>
+    </row>
+    <row r="485">
+      <c r="A485" s="36"/>
+      <c r="B485" s="36"/>
+      <c r="C485" s="36"/>
+      <c r="D485" s="36"/>
+      <c r="E485" s="36"/>
+      <c r="F485" s="36"/>
+      <c r="G485" s="36"/>
+      <c r="H485" s="36"/>
+      <c r="I485" s="36"/>
+      <c r="J485" s="36"/>
+      <c r="K485" s="36"/>
+      <c r="L485" s="36"/>
+      <c r="M485" s="36"/>
+      <c r="N485" s="36"/>
+      <c r="O485" s="36"/>
+    </row>
+    <row r="486">
+      <c r="A486" s="36"/>
+      <c r="B486" s="36"/>
+      <c r="C486" s="36"/>
+      <c r="D486" s="36"/>
+      <c r="E486" s="36"/>
+      <c r="F486" s="36"/>
+      <c r="G486" s="36"/>
+      <c r="H486" s="36"/>
+      <c r="I486" s="36"/>
+      <c r="J486" s="36"/>
+      <c r="K486" s="36"/>
+      <c r="L486" s="36"/>
+      <c r="M486" s="36"/>
+      <c r="N486" s="36"/>
+      <c r="O486" s="36"/>
+    </row>
+    <row r="487">
+      <c r="A487" s="36"/>
+      <c r="B487" s="36"/>
+      <c r="C487" s="36"/>
+      <c r="D487" s="36"/>
+      <c r="E487" s="36"/>
+      <c r="F487" s="36"/>
+      <c r="G487" s="36"/>
+      <c r="H487" s="36"/>
+      <c r="I487" s="36"/>
+      <c r="J487" s="36"/>
+      <c r="K487" s="36"/>
+      <c r="L487" s="36"/>
+      <c r="M487" s="36"/>
+      <c r="N487" s="36"/>
+      <c r="O487" s="36"/>
+    </row>
+    <row r="488">
+      <c r="A488" s="36"/>
+      <c r="B488" s="36"/>
+      <c r="C488" s="36"/>
+      <c r="D488" s="36"/>
+      <c r="E488" s="36"/>
+      <c r="F488" s="36"/>
+      <c r="G488" s="36"/>
+      <c r="H488" s="36"/>
+      <c r="I488" s="36"/>
+      <c r="J488" s="36"/>
+      <c r="K488" s="36"/>
+      <c r="L488" s="36"/>
+      <c r="M488" s="36"/>
+      <c r="N488" s="36"/>
+      <c r="O488" s="36"/>
+    </row>
+    <row r="489">
+      <c r="A489" s="36"/>
+      <c r="B489" s="36"/>
+      <c r="C489" s="36"/>
+      <c r="D489" s="36"/>
+      <c r="E489" s="36"/>
+      <c r="F489" s="36"/>
+      <c r="G489" s="36"/>
+      <c r="H489" s="36"/>
+      <c r="I489" s="36"/>
+      <c r="J489" s="36"/>
+      <c r="K489" s="36"/>
+      <c r="L489" s="36"/>
+      <c r="M489" s="36"/>
+      <c r="N489" s="36"/>
+      <c r="O489" s="36"/>
+    </row>
+    <row r="490">
+      <c r="A490" s="36"/>
+      <c r="B490" s="36"/>
+      <c r="C490" s="36"/>
+      <c r="D490" s="36"/>
+      <c r="E490" s="36"/>
+      <c r="F490" s="36"/>
+      <c r="G490" s="36"/>
+      <c r="H490" s="36"/>
+      <c r="I490" s="36"/>
+      <c r="J490" s="36"/>
+      <c r="K490" s="36"/>
+      <c r="L490" s="36"/>
+      <c r="M490" s="36"/>
+      <c r="N490" s="36"/>
+      <c r="O490" s="36"/>
+    </row>
+    <row r="491">
+      <c r="A491" s="36"/>
+      <c r="B491" s="36"/>
+      <c r="C491" s="36"/>
+      <c r="D491" s="36"/>
+      <c r="E491" s="36"/>
+      <c r="F491" s="36"/>
+      <c r="G491" s="36"/>
+      <c r="H491" s="36"/>
+      <c r="I491" s="36"/>
+      <c r="J491" s="36"/>
+      <c r="K491" s="36"/>
+      <c r="L491" s="36"/>
+      <c r="M491" s="36"/>
+      <c r="N491" s="36"/>
+      <c r="O491" s="36"/>
+    </row>
+    <row r="492">
+      <c r="A492" s="36"/>
+      <c r="B492" s="36"/>
+      <c r="C492" s="36"/>
+      <c r="D492" s="36"/>
+      <c r="E492" s="36"/>
+      <c r="F492" s="36"/>
+      <c r="G492" s="36"/>
+      <c r="H492" s="36"/>
+      <c r="I492" s="36"/>
+      <c r="J492" s="36"/>
+      <c r="K492" s="36"/>
+      <c r="L492" s="36"/>
+      <c r="M492" s="36"/>
+      <c r="N492" s="36"/>
+      <c r="O492" s="36"/>
+    </row>
+    <row r="493">
+      <c r="A493" s="36"/>
+      <c r="B493" s="36"/>
+      <c r="C493" s="36"/>
+      <c r="D493" s="36"/>
+      <c r="E493" s="36"/>
+      <c r="F493" s="36"/>
+      <c r="G493" s="36"/>
+      <c r="H493" s="36"/>
+      <c r="I493" s="36"/>
+      <c r="J493" s="36"/>
+      <c r="K493" s="36"/>
+      <c r="L493" s="36"/>
+      <c r="M493" s="36"/>
+      <c r="N493" s="36"/>
+      <c r="O493" s="36"/>
+    </row>
+    <row r="494">
+      <c r="A494" s="36"/>
+      <c r="B494" s="36"/>
+      <c r="C494" s="36"/>
+      <c r="D494" s="36"/>
+      <c r="E494" s="36"/>
+      <c r="F494" s="36"/>
+      <c r="G494" s="36"/>
+      <c r="H494" s="36"/>
+      <c r="I494" s="36"/>
+      <c r="J494" s="36"/>
+      <c r="K494" s="36"/>
+      <c r="L494" s="36"/>
+      <c r="M494" s="36"/>
+      <c r="N494" s="36"/>
+      <c r="O494" s="36"/>
+    </row>
+    <row r="495">
+      <c r="A495" s="36"/>
+      <c r="B495" s="36"/>
+      <c r="C495" s="36"/>
+      <c r="D495" s="36"/>
+      <c r="E495" s="36"/>
+      <c r="F495" s="36"/>
+      <c r="G495" s="36"/>
+      <c r="H495" s="36"/>
+      <c r="I495" s="36"/>
+      <c r="J495" s="36"/>
+      <c r="K495" s="36"/>
+      <c r="L495" s="36"/>
+      <c r="M495" s="36"/>
+      <c r="N495" s="36"/>
+      <c r="O495" s="36"/>
+    </row>
+    <row r="496">
+      <c r="A496" s="36"/>
+      <c r="B496" s="36"/>
+      <c r="C496" s="36"/>
+      <c r="D496" s="36"/>
+      <c r="E496" s="36"/>
+      <c r="F496" s="36"/>
+      <c r="G496" s="36"/>
+      <c r="H496" s="36"/>
+      <c r="I496" s="36"/>
+      <c r="J496" s="36"/>
+      <c r="K496" s="36"/>
+      <c r="L496" s="36"/>
+      <c r="M496" s="36"/>
+      <c r="N496" s="36"/>
+      <c r="O496" s="36"/>
+    </row>
+    <row r="497">
+      <c r="A497" s="36"/>
+      <c r="B497" s="36"/>
+      <c r="C497" s="36"/>
+      <c r="D497" s="36"/>
+      <c r="E497" s="36"/>
+      <c r="F497" s="36"/>
+      <c r="G497" s="36"/>
+      <c r="H497" s="36"/>
+      <c r="I497" s="36"/>
+      <c r="J497" s="36"/>
+      <c r="K497" s="36"/>
+      <c r="L497" s="36"/>
+      <c r="M497" s="36"/>
+      <c r="N497" s="36"/>
+      <c r="O497" s="36"/>
+    </row>
+    <row r="498">
+      <c r="A498" s="36"/>
+      <c r="B498" s="36"/>
+      <c r="C498" s="36"/>
+      <c r="D498" s="36"/>
+      <c r="E498" s="36"/>
+      <c r="F498" s="36"/>
+      <c r="G498" s="36"/>
+      <c r="H498" s="36"/>
+      <c r="I498" s="36"/>
+      <c r="J498" s="36"/>
+      <c r="K498" s="36"/>
+      <c r="L498" s="36"/>
+      <c r="M498" s="36"/>
+      <c r="N498" s="36"/>
+      <c r="O498" s="36"/>
+    </row>
+    <row r="499">
+      <c r="A499" s="36"/>
+      <c r="B499" s="36"/>
+      <c r="C499" s="36"/>
+      <c r="D499" s="36"/>
+      <c r="E499" s="36"/>
+      <c r="F499" s="36"/>
+      <c r="G499" s="36"/>
+      <c r="H499" s="36"/>
+      <c r="I499" s="36"/>
+      <c r="J499" s="36"/>
+      <c r="K499" s="36"/>
+      <c r="L499" s="36"/>
+      <c r="M499" s="36"/>
+      <c r="N499" s="36"/>
+      <c r="O499" s="36"/>
+    </row>
+    <row r="500">
+      <c r="A500" s="36"/>
+      <c r="B500" s="36"/>
+      <c r="C500" s="36"/>
+      <c r="D500" s="36"/>
+      <c r="E500" s="36"/>
+      <c r="F500" s="36"/>
+      <c r="G500" s="36"/>
+      <c r="H500" s="36"/>
+      <c r="I500" s="36"/>
+      <c r="J500" s="36"/>
+      <c r="K500" s="36"/>
+      <c r="L500" s="36"/>
+      <c r="M500" s="36"/>
+      <c r="N500" s="36"/>
+      <c r="O500" s="36"/>
+    </row>
+    <row r="501">
+      <c r="A501" s="36"/>
+      <c r="B501" s="36"/>
+      <c r="C501" s="36"/>
+      <c r="D501" s="36"/>
+      <c r="E501" s="36"/>
+      <c r="F501" s="36"/>
+      <c r="G501" s="36"/>
+      <c r="H501" s="36"/>
+      <c r="I501" s="36"/>
+      <c r="J501" s="36"/>
+      <c r="K501" s="36"/>
+      <c r="L501" s="36"/>
+      <c r="M501" s="36"/>
+      <c r="N501" s="36"/>
+      <c r="O501" s="36"/>
+    </row>
+    <row r="502">
+      <c r="A502" s="36"/>
+      <c r="B502" s="36"/>
+      <c r="C502" s="36"/>
+      <c r="D502" s="36"/>
+      <c r="E502" s="36"/>
+      <c r="F502" s="36"/>
+      <c r="G502" s="36"/>
+      <c r="H502" s="36"/>
+      <c r="I502" s="36"/>
+      <c r="J502" s="36"/>
+      <c r="K502" s="36"/>
+      <c r="L502" s="36"/>
+      <c r="M502" s="36"/>
+      <c r="N502" s="36"/>
+      <c r="O502" s="36"/>
+    </row>
+    <row r="503">
+      <c r="A503" s="36"/>
+      <c r="B503" s="36"/>
+      <c r="C503" s="36"/>
+      <c r="D503" s="36"/>
+      <c r="E503" s="36"/>
+      <c r="F503" s="36"/>
+      <c r="G503" s="36"/>
+      <c r="H503" s="36"/>
+      <c r="I503" s="36"/>
+      <c r="J503" s="36"/>
+      <c r="K503" s="36"/>
+      <c r="L503" s="36"/>
+      <c r="M503" s="36"/>
+      <c r="N503" s="36"/>
+      <c r="O503" s="36"/>
+    </row>
+    <row r="504">
+      <c r="A504" s="36"/>
+      <c r="B504" s="36"/>
+      <c r="C504" s="36"/>
+      <c r="D504" s="36"/>
+      <c r="E504" s="36"/>
+      <c r="F504" s="36"/>
+      <c r="G504" s="36"/>
+      <c r="H504" s="36"/>
+      <c r="I504" s="36"/>
+      <c r="J504" s="36"/>
+      <c r="K504" s="36"/>
+      <c r="L504" s="36"/>
+      <c r="M504" s="36"/>
+      <c r="N504" s="36"/>
+      <c r="O504" s="36"/>
+    </row>
+    <row r="505">
+      <c r="A505" s="36"/>
+      <c r="B505" s="36"/>
+      <c r="C505" s="36"/>
+      <c r="D505" s="36"/>
+      <c r="E505" s="36"/>
+      <c r="F505" s="36"/>
+      <c r="G505" s="36"/>
+      <c r="H505" s="36"/>
+      <c r="I505" s="36"/>
+      <c r="J505" s="36"/>
+      <c r="K505" s="36"/>
+      <c r="L505" s="36"/>
+      <c r="M505" s="36"/>
+      <c r="N505" s="36"/>
+      <c r="O505" s="36"/>
+    </row>
+    <row r="506">
+      <c r="A506" s="36"/>
+      <c r="B506" s="36"/>
+      <c r="C506" s="36"/>
+      <c r="D506" s="36"/>
+      <c r="E506" s="36"/>
+      <c r="F506" s="36"/>
+      <c r="G506" s="36"/>
+      <c r="H506" s="36"/>
+      <c r="I506" s="36"/>
+      <c r="J506" s="36"/>
+      <c r="K506" s="36"/>
+      <c r="L506" s="36"/>
+      <c r="M506" s="36"/>
+      <c r="N506" s="36"/>
+      <c r="O506" s="36"/>
+    </row>
+    <row r="507">
+      <c r="A507" s="36"/>
+      <c r="B507" s="36"/>
+      <c r="C507" s="36"/>
+      <c r="D507" s="36"/>
+      <c r="E507" s="36"/>
+      <c r="F507" s="36"/>
+      <c r="G507" s="36"/>
+      <c r="H507" s="36"/>
+      <c r="I507" s="36"/>
+      <c r="J507" s="36"/>
+      <c r="K507" s="36"/>
+      <c r="L507" s="36"/>
+      <c r="M507" s="36"/>
+      <c r="N507" s="36"/>
+      <c r="O507" s="36"/>
+    </row>
+    <row r="508">
+      <c r="A508" s="36"/>
+      <c r="B508" s="36"/>
+      <c r="C508" s="36"/>
+      <c r="D508" s="36"/>
+      <c r="E508" s="36"/>
+      <c r="F508" s="36"/>
+      <c r="G508" s="36"/>
+      <c r="H508" s="36"/>
+      <c r="I508" s="36"/>
+      <c r="J508" s="36"/>
+      <c r="K508" s="36"/>
+      <c r="L508" s="36"/>
+      <c r="M508" s="36"/>
+      <c r="N508" s="36"/>
+      <c r="O508" s="36"/>
+    </row>
+    <row r="509">
+      <c r="A509" s="36"/>
+      <c r="B509" s="36"/>
+      <c r="C509" s="36"/>
+      <c r="D509" s="36"/>
+      <c r="E509" s="36"/>
+      <c r="F509" s="36"/>
+      <c r="G509" s="36"/>
+      <c r="H509" s="36"/>
+      <c r="I509" s="36"/>
+      <c r="J509" s="36"/>
+      <c r="K509" s="36"/>
+      <c r="L509" s="36"/>
+      <c r="M509" s="36"/>
+      <c r="N509" s="36"/>
+      <c r="O509" s="36"/>
+    </row>
+    <row r="510">
+      <c r="A510" s="36"/>
+      <c r="B510" s="36"/>
+      <c r="C510" s="36"/>
+      <c r="D510" s="36"/>
+      <c r="E510" s="36"/>
+      <c r="F510" s="36"/>
+      <c r="G510" s="36"/>
+      <c r="H510" s="36"/>
+      <c r="I510" s="36"/>
+      <c r="J510" s="36"/>
+      <c r="K510" s="36"/>
+      <c r="L510" s="36"/>
+      <c r="M510" s="36"/>
+      <c r="N510" s="36"/>
+      <c r="O510" s="36"/>
+    </row>
+    <row r="511">
+      <c r="A511" s="36"/>
+      <c r="B511" s="36"/>
+      <c r="C511" s="36"/>
+      <c r="D511" s="36"/>
+      <c r="E511" s="36"/>
+      <c r="F511" s="36"/>
+      <c r="G511" s="36"/>
+      <c r="H511" s="36"/>
+      <c r="I511" s="36"/>
+      <c r="J511" s="36"/>
+      <c r="K511" s="36"/>
+      <c r="L511" s="36"/>
+      <c r="M511" s="36"/>
+      <c r="N511" s="36"/>
+      <c r="O511" s="36"/>
+    </row>
+    <row r="512">
+      <c r="A512" s="36"/>
+      <c r="B512" s="36"/>
+      <c r="C512" s="36"/>
+      <c r="D512" s="36"/>
+      <c r="E512" s="36"/>
+      <c r="F512" s="36"/>
+      <c r="G512" s="36"/>
+      <c r="H512" s="36"/>
+      <c r="I512" s="36"/>
+      <c r="J512" s="36"/>
+      <c r="K512" s="36"/>
+      <c r="L512" s="36"/>
+      <c r="M512" s="36"/>
+      <c r="N512" s="36"/>
+      <c r="O512" s="36"/>
+    </row>
+    <row r="513">
+      <c r="A513" s="36"/>
+      <c r="B513" s="36"/>
+      <c r="C513" s="36"/>
+      <c r="D513" s="36"/>
+      <c r="E513" s="36"/>
+      <c r="F513" s="36"/>
+      <c r="G513" s="36"/>
+      <c r="H513" s="36"/>
+      <c r="I513" s="36"/>
+      <c r="J513" s="36"/>
+      <c r="K513" s="36"/>
+      <c r="L513" s="36"/>
+      <c r="M513" s="36"/>
+      <c r="N513" s="36"/>
+      <c r="O513" s="36"/>
+    </row>
+    <row r="514">
+      <c r="A514" s="36"/>
+      <c r="B514" s="36"/>
+      <c r="C514" s="36"/>
+      <c r="D514" s="36"/>
+      <c r="E514" s="36"/>
+      <c r="F514" s="36"/>
+      <c r="G514" s="36"/>
+      <c r="H514" s="36"/>
+      <c r="I514" s="36"/>
+      <c r="J514" s="36"/>
+      <c r="K514" s="36"/>
+      <c r="L514" s="36"/>
+      <c r="M514" s="36"/>
+      <c r="N514" s="36"/>
+      <c r="O514" s="36"/>
+    </row>
+    <row r="515">
+      <c r="A515" s="36"/>
+      <c r="B515" s="36"/>
+      <c r="C515" s="36"/>
+      <c r="D515" s="36"/>
+      <c r="E515" s="36"/>
+      <c r="F515" s="36"/>
+      <c r="G515" s="36"/>
+      <c r="H515" s="36"/>
+      <c r="I515" s="36"/>
+      <c r="J515" s="36"/>
+      <c r="K515" s="36"/>
+      <c r="L515" s="36"/>
+      <c r="M515" s="36"/>
+      <c r="N515" s="36"/>
+      <c r="O515" s="36"/>
+    </row>
+    <row r="516">
+      <c r="A516" s="36"/>
+      <c r="B516" s="36"/>
+      <c r="C516" s="36"/>
+      <c r="D516" s="36"/>
+      <c r="E516" s="36"/>
+      <c r="F516" s="36"/>
+      <c r="G516" s="36"/>
+      <c r="H516" s="36"/>
+      <c r="I516" s="36"/>
+      <c r="J516" s="36"/>
+      <c r="K516" s="36"/>
+      <c r="L516" s="36"/>
+      <c r="M516" s="36"/>
+      <c r="N516" s="36"/>
+      <c r="O516" s="36"/>
+    </row>
+    <row r="517">
+      <c r="A517" s="36"/>
+      <c r="B517" s="36"/>
+      <c r="C517" s="36"/>
+      <c r="D517" s="36"/>
+      <c r="E517" s="36"/>
+      <c r="F517" s="36"/>
+      <c r="G517" s="36"/>
+      <c r="H517" s="36"/>
+      <c r="I517" s="36"/>
+      <c r="J517" s="36"/>
+      <c r="K517" s="36"/>
+      <c r="L517" s="36"/>
+      <c r="M517" s="36"/>
+      <c r="N517" s="36"/>
+      <c r="O517" s="36"/>
+    </row>
+    <row r="518">
+      <c r="A518" s="36"/>
+      <c r="B518" s="36"/>
+      <c r="C518" s="36"/>
+      <c r="D518" s="36"/>
+      <c r="E518" s="36"/>
+      <c r="F518" s="36"/>
+      <c r="G518" s="36"/>
+      <c r="H518" s="36"/>
+      <c r="I518" s="36"/>
+      <c r="J518" s="36"/>
+      <c r="K518" s="36"/>
+      <c r="L518" s="36"/>
+      <c r="M518" s="36"/>
+      <c r="N518" s="36"/>
+      <c r="O518" s="36"/>
+    </row>
+    <row r="519">
+      <c r="A519" s="36"/>
+      <c r="B519" s="36"/>
+      <c r="C519" s="36"/>
+      <c r="D519" s="36"/>
+      <c r="E519" s="36"/>
+      <c r="F519" s="36"/>
+      <c r="G519" s="36"/>
+      <c r="H519" s="36"/>
+      <c r="I519" s="36"/>
+      <c r="J519" s="36"/>
+      <c r="K519" s="36"/>
+      <c r="L519" s="36"/>
+      <c r="M519" s="36"/>
+      <c r="N519" s="36"/>
+      <c r="O519" s="36"/>
+    </row>
+    <row r="520">
+      <c r="A520" s="36"/>
+      <c r="B520" s="36"/>
+      <c r="C520" s="36"/>
+      <c r="D520" s="36"/>
+      <c r="E520" s="36"/>
+      <c r="F520" s="36"/>
+      <c r="G520" s="36"/>
+      <c r="H520" s="36"/>
+      <c r="I520" s="36"/>
+      <c r="J520" s="36"/>
+      <c r="K520" s="36"/>
+      <c r="L520" s="36"/>
+      <c r="M520" s="36"/>
+      <c r="N520" s="36"/>
+      <c r="O520" s="36"/>
+    </row>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
